--- a/StructureDefinition-profile-Observation.xlsx
+++ b/StructureDefinition-profile-Observation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3238" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3632" uniqueCount="564">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7512861-06:00</t>
+    <t>2026-02-09T22:05:43.2376099-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -465,6 +465,72 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>Observation.extension:instantiates</t>
+  </si>
+  <si>
+    <t>instantiates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.instantiates|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Observation.instantiates[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The reference to a FHIR ObservationDefinition resource that provides the definition that is adhered to in whole or in part by this Observation instance.</t>
+  </si>
+  <si>
+    <t>Element `Observation.instantiates[x]` is will have a context of Observation based on following the parent source element upwards and mapping to `Observation`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Observation.extension:instantiatesCanonical</t>
+  </si>
+  <si>
+    <t>instantiatesCanonical</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/ObservationDefinition in FHIR R4</t>
+  </si>
+  <si>
+    <t>Observation.extension:instantiatesReference</t>
+  </si>
+  <si>
+    <t>instantiatesReference</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/ObservationDefinition in FHIR R4</t>
+  </si>
+  <si>
+    <t>Observation.extension:triggeredBy</t>
+  </si>
+  <si>
+    <t>triggeredBy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.triggeredBy|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Observation.triggeredBy from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Identifies the observation(s) that triggered the performance of this observation.</t>
+  </si>
+  <si>
+    <t>Element `Observation.triggeredBy` is will have a context of Observation based on following the parent source element upwards and mapping to `Observation`.</t>
+  </si>
+  <si>
+    <t>Observation.extension:value</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.value|0.0.1-snapshot-3}
 </t>
   </si>
@@ -475,19 +541,47 @@
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
   </si>
   <si>
-    <t>- An observation may have:
-  1.  a single value here
-  1.  both a value and a set of related or component values
-  1.  only a set of related or component values.
--  If a value is present, the datatype for this element should be determined by the `code`.
--  *CodeableConcept* with just a text would be used instead of a string if the field was usually coded, or if the type associated with the `code` defines a coded value.
--  *Attachment* is used if the observation result value is a binary file such as an image.  If the observation result value is derived from the binary file (for example 'X' detected and here is the the proof in this image), the binary file may be directly represented using *DocumentReference* and referenced by `derivedFrom`.
-- The usage of valueReference is restricted to the MolecularSequence resource when used as a definitional resource, not as a patient-specific finding. .
-- For additional guidance, see the [Notes section](https://hl7.org/fhir/observ.html#notes) below.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
+    <t>Note that the target element context `Observation.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Observation`.
+Element `Observation.value[x]` is mapped to FHIR R4 element `Observation.value[x]`.
+Note that the target element context `Observation.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Observation`.</t>
+  </si>
+  <si>
+    <t>Observation.extension:valueCanonical</t>
+  </si>
+  <si>
+    <t>valueCanonical</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/MolecularSequence in FHIR R4</t>
+  </si>
+  <si>
+    <t>Observation.extension:valueReference</t>
+  </si>
+  <si>
+    <t>valueReference</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/MolecularSequence in FHIR R4</t>
+  </si>
+  <si>
+    <t>Observation.extension:bodyStructure</t>
+  </si>
+  <si>
+    <t>bodyStructure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
 </t>
+  </si>
+  <si>
+    <t>Cross-version extension for Observation.bodyStructure from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/BodyStructure in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Observation.bodyStructure` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Observation.bodyStructure` is will have a context of Observation based on following the parent source element upwards and mapping to `Observation`.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -627,14 +721,20 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.partOf|0.0.1-snapshot-3}
-</t>
+    <t>Observation.partOf.extension:partOf</t>
+  </si>
+  <si>
+    <t>partOf</t>
   </si>
   <si>
     <t>Cross-version extension for Observation.partOf from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](https://hl7.org/fhir/observation..html#obsgrouping) below for guidance on referencing another Observation.</t>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/GenomicStudy in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Observation.partOf` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Observation.partOf` is mapped to FHIR R4 element `Observation.partOf`.</t>
   </si>
   <si>
     <t>Observation.partOf.reference</t>
@@ -1032,9 +1132,6 @@
     <t>OBX.2, OBX.5, OBX.6</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>363714003 |Interprets|</t>
   </si>
   <si>
@@ -1221,11 +1318,20 @@
     <t>Observation.specimen.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.specimen|0.0.1-snapshot-3}
-</t>
+    <t>Observation.specimen.extension:specimen</t>
+  </si>
+  <si>
+    <t>specimen</t>
   </si>
   <si>
     <t>Cross-version extension for Observation.specimen from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Group in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Observation.specimen` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Observation.specimen` is mapped to FHIR R4 element `Observation.specimen`.</t>
   </si>
   <si>
     <t>Observation.specimen.reference</t>
@@ -1303,10 +1409,24 @@
     <t>Observation.referenceRange.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Observation.referenceRange.extension:normalValue</t>
+  </si>
+  <si>
+    <t>normalValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.referenceRange.normalValue|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Observation.referenceRange.normalValue from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The value of the normal value of the reference range.</t>
+  </si>
+  <si>
+    <t>Element `Observation.referenceRange.normalValue` is part of an existing definition because parent element `Observation.referenceRange` requires a component extension (e.g., if this element is used as a content reference).
+Element `Observation.referenceRange.normalValue` is will have a context of Observation.referenceRange based on following the parent source element upwards and mapping to `Observation`.</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1493,14 +1613,20 @@
     <t>Observation.derivedFrom.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.derivedFrom|0.0.1-snapshot-3}
-</t>
+    <t>Observation.derivedFrom.extension:derivedFrom</t>
+  </si>
+  <si>
+    <t>derivedFrom</t>
   </si>
   <si>
     <t>Cross-version extension for Observation.derivedFrom from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](https://hl7.org/fhir/observation..html#obsgrouping) below.</t>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/DocumentReference,http://hl7.org/fhir/StructureDefinition/GenomicStudy,http://hl7.org/fhir/StructureDefinition/ImagingSelection in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Observation.derivedFrom` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Observation.derivedFrom` is mapped to FHIR R4 element `Observation.derivedFrom`.</t>
   </si>
   <si>
     <t>Observation.derivedFrom.reference</t>
@@ -1540,6 +1666,9 @@
   </si>
   <si>
     <t>Observation.component.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.extension:value</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.component.value|0.0.1-snapshot-3}
@@ -1549,16 +1678,15 @@
     <t>Cross-version extension for Observation.component.value[x] from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Used when observation has a set of component observations:
--  An observation may have both a value (e.g. an  Apgar score) and component observations (the observations from which the Apgar score was derived). 
--  If a value is present, the datatype for this element should be determined by the `code`.
--  *CodeableConcept* with just a text would be used instead of a string if the field was usually coded, or if the type associated with the `code` defines a coded value.
--  *Attachment* is used if the observation result value is a binary file such as an image.  If the observation result value is derived from the binary file (for example 'X' detected and here is the the proof in this image), the binary file may be directly represented using *DocumentReference* and referenced by `derivedFrom`.
-- If a value is present, the datatype for this element should be determined by the `code`.
--  *CodeableConcept* with just a text would be used instead of a string if the field was usually coded, or if the type associated with the `code` defines a coded value.
--  *Attachment* is used if the observation result value is a binary file such as an image.  If the observation result value is derived from the binary file (for example 'X' detected and here is the the proof in this image), the binary file may be directly represented using *DocumentReference* and referenced by `derivedFrom`.
-- The usage of valueReference is restricted to the MolecularSequence resource when used as a definitional resource, not as a patient-specific finding. .
-- For additional guidance, see the [Notes section](https://hl7.org/fhir/observ.html#notes) below.</t>
+    <t>Note that the target element context `Observation.component.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Observation.component`.
+Element `Observation.component.value[x]` is mapped to FHIR R4 element `Observation.component.value[x]`.
+Note that the target element context `Observation.component.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Observation.component`.</t>
+  </si>
+  <si>
+    <t>Observation.component.extension:valueCanonical</t>
+  </si>
+  <si>
+    <t>Observation.component.extension:valueReference</t>
   </si>
   <si>
     <t>Observation.component.modifierExtension</t>
@@ -1623,11 +1751,20 @@
     <t>Observation.component.referenceRange.extension</t>
   </si>
   <si>
+    <t>Observation.component.referenceRange.extension:referenceRange</t>
+  </si>
+  <si>
+    <t>referenceRange</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.component.referenceRange|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for Observation.component.referenceRange from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Observation.component.referenceRange` is mapped to FHIR R4 element `Observation.component.referenceRange`.</t>
   </si>
   <si>
     <t>Observation.component.referenceRange.modifierExtension</t>
@@ -1955,7 +2092,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP84"/>
+  <dimension ref="A1:AP94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1964,9 +2101,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.84765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.30078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="48.84765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="18.46484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2986,7 +3123,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>81</v>
@@ -3091,12 +3228,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="D10" t="s" s="2">
         <v>82</v>
       </c>
@@ -3117,16 +3256,16 @@
         <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3185,7 +3324,7 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>144</v>
@@ -3211,46 +3350,46 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>82</v>
       </c>
@@ -3298,7 +3437,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3307,7 +3446,7 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>144</v>
@@ -3322,7 +3461,7 @@
         <v>82</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>82</v>
@@ -3333,12 +3472,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>82</v>
       </c>
@@ -3347,7 +3488,7 @@
         <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>82</v>
@@ -3356,21 +3497,21 @@
         <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>82</v>
       </c>
@@ -3418,7 +3559,7 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3427,25 +3568,25 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>82</v>
@@ -3453,14 +3594,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="D13" t="s" s="2">
-        <v>167</v>
+        <v>82</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3476,21 +3619,21 @@
         <v>82</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>82</v>
       </c>
@@ -3538,7 +3681,7 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3547,22 +3690,22 @@
         <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>173</v>
+        <v>82</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>82</v>
@@ -3573,21 +3716,23 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="D14" t="s" s="2">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>82</v>
@@ -3596,19 +3741,19 @@
         <v>82</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3658,7 +3803,7 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3667,22 +3812,22 @@
         <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>82</v>
@@ -3693,12 +3838,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="D15" t="s" s="2">
         <v>82</v>
       </c>
@@ -3719,15 +3866,17 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>82</v>
@@ -3776,19 +3925,19 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>82</v>
@@ -3800,7 +3949,7 @@
         <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>82</v>
@@ -3811,22 +3960,24 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G16" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H16" t="s" s="2">
         <v>82</v>
       </c>
@@ -3837,15 +3988,17 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -3882,19 +4035,19 @@
         <v>82</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3903,7 +4056,7 @@
         <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>144</v>
@@ -3929,12 +4082,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>82</v>
       </c>
@@ -3943,7 +4098,7 @@
         <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>82</v>
@@ -3955,16 +4110,16 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4014,7 +4169,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4049,44 +4204,46 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>198</v>
-      </c>
       <c r="N18" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
       </c>
@@ -4134,19 +4291,19 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>82</v>
@@ -4169,10 +4326,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4183,7 +4340,7 @@
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>82</v>
@@ -4195,18 +4352,18 @@
         <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
       </c>
@@ -4230,13 +4387,13 @@
         <v>82</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>82</v>
@@ -4254,13 +4411,13 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>82</v>
@@ -4269,19 +4426,19 @@
         <v>105</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4289,21 +4446,21 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>82</v>
@@ -4315,18 +4472,18 @@
         <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
       </c>
@@ -4374,13 +4531,13 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>82</v>
@@ -4389,16 +4546,16 @@
         <v>105</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4409,21 +4566,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>82</v>
@@ -4435,16 +4592,16 @@
         <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4494,13 +4651,13 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>82</v>
@@ -4509,16 +4666,16 @@
         <v>105</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>82</v>
+        <v>214</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4529,10 +4686,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4540,7 +4697,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>93</v>
@@ -4549,26 +4706,22 @@
         <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>113</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
@@ -4592,13 +4745,13 @@
         <v>82</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>226</v>
+        <v>82</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>227</v>
+        <v>82</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>228</v>
+        <v>82</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>82</v>
@@ -4616,10 +4769,10 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>93</v>
@@ -4628,22 +4781,22 @@
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>229</v>
+        <v>82</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>230</v>
+        <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4651,10 +4804,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4677,20 +4830,16 @@
         <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>235</v>
+        <v>138</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>236</v>
+        <v>139</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>82</v>
       </c>
@@ -4714,31 +4863,31 @@
         <v>82</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>241</v>
+        <v>82</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4750,7 +4899,7 @@
         <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>82</v>
@@ -4762,10 +4911,10 @@
         <v>82</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>242</v>
+        <v>82</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -4773,18 +4922,20 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="D24" t="s" s="2">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>93</v>
@@ -4796,23 +4947,21 @@
         <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
@@ -4836,13 +4985,13 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>250</v>
+        <v>82</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>251</v>
+        <v>82</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>252</v>
+        <v>82</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -4860,45 +5009,45 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>254</v>
+        <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>255</v>
+        <v>82</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>257</v>
+        <v>82</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>258</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4921,20 +5070,18 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>82</v>
       </c>
@@ -4982,7 +5129,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4991,25 +5138,25 @@
         <v>93</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>82</v>
+        <v>235</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>265</v>
+        <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>266</v>
+        <v>82</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>267</v>
+        <v>136</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>268</v>
+        <v>82</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>82</v>
@@ -5017,10 +5164,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5031,7 +5178,7 @@
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>82</v>
@@ -5043,16 +5190,16 @@
         <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>270</v>
+        <v>107</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5078,13 +5225,13 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>82</v>
+        <v>242</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -5102,13 +5249,13 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>82</v>
@@ -5123,13 +5270,13 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>255</v>
+        <v>82</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>274</v>
+        <v>136</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>268</v>
+        <v>82</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>82</v>
@@ -5137,14 +5284,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>276</v>
+        <v>82</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5163,20 +5310,18 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>277</v>
+        <v>190</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>82</v>
       </c>
@@ -5224,7 +5369,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5239,19 +5384,19 @@
         <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>283</v>
+        <v>82</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>285</v>
+        <v>82</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>82</v>
@@ -5259,14 +5404,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>287</v>
+        <v>82</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5285,20 +5430,18 @@
         <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>288</v>
+        <v>217</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>82</v>
       </c>
@@ -5346,7 +5489,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5361,19 +5504,19 @@
         <v>105</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>293</v>
+        <v>82</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>294</v>
+        <v>82</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>295</v>
+        <v>136</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>296</v>
+        <v>82</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5381,10 +5524,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5392,7 +5535,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>93</v>
@@ -5401,24 +5544,26 @@
         <v>82</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>298</v>
+        <v>113</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>299</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
       </c>
@@ -5442,13 +5587,13 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>82</v>
+        <v>260</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>82</v>
+        <v>262</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
@@ -5466,10 +5611,10 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>93</v>
@@ -5481,19 +5626,19 @@
         <v>105</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>82</v>
+        <v>263</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>82</v>
+        <v>264</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>82</v>
@@ -5501,10 +5646,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5524,20 +5669,22 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O30" t="s" s="2">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5562,13 +5709,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>82</v>
+        <v>274</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>82</v>
+        <v>275</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5586,7 +5733,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5601,19 +5748,19 @@
         <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>310</v>
+        <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>311</v>
+        <v>82</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>82</v>
@@ -5621,18 +5768,18 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>82</v>
+        <v>279</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>93</v>
@@ -5647,19 +5794,19 @@
         <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>147</v>
+        <v>281</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5684,13 +5831,13 @@
         <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>82</v>
+        <v>285</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>82</v>
+        <v>286</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
@@ -5708,45 +5855,45 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>82</v>
+        <v>287</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>82</v>
+        <v>291</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>323</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5766,22 +5913,22 @@
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -5806,13 +5953,13 @@
         <v>82</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>330</v>
+        <v>82</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>82</v>
@@ -5830,7 +5977,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5839,25 +5986,25 @@
         <v>93</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>331</v>
+        <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>82</v>
+        <v>299</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>136</v>
+        <v>300</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>82</v>
+        <v>302</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>82</v>
@@ -5865,14 +6012,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>334</v>
+        <v>82</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5888,23 +6035,21 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>235</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>82</v>
       </c>
@@ -5928,13 +6073,13 @@
         <v>82</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>339</v>
+        <v>82</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>340</v>
+        <v>82</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>82</v>
@@ -5952,7 +6097,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5970,38 +6115,38 @@
         <v>82</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>342</v>
+        <v>289</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>82</v>
+        <v>302</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>344</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>82</v>
+        <v>310</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -6010,22 +6155,22 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6074,13 +6219,13 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
@@ -6089,19 +6234,19 @@
         <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>82</v>
+        <v>316</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6109,14 +6254,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>82</v>
+        <v>321</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6132,21 +6277,23 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>235</v>
+        <v>322</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
       </c>
@@ -6170,13 +6317,13 @@
         <v>82</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>250</v>
+        <v>82</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>357</v>
+        <v>82</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>358</v>
+        <v>82</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>82</v>
@@ -6194,7 +6341,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6209,30 +6356,30 @@
         <v>105</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>82</v>
+        <v>327</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>359</v>
+        <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>362</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6252,23 +6399,21 @@
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>235</v>
+        <v>332</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
@@ -6292,13 +6437,13 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>250</v>
+        <v>82</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>368</v>
+        <v>82</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -6316,7 +6461,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6337,13 +6482,13 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>82</v>
+        <v>338</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>82</v>
@@ -6351,10 +6496,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6365,7 +6510,7 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
@@ -6374,21 +6519,21 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
       </c>
@@ -6436,13 +6581,13 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>82</v>
@@ -6451,30 +6596,30 @@
         <v>105</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>82</v>
+        <v>344</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>82</v>
+        <v>347</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>380</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6494,19 +6639,23 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>185</v>
+        <v>349</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>186</v>
+        <v>350</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
       </c>
@@ -6554,7 +6703,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6563,36 +6712,36 @@
         <v>93</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>82</v>
+        <v>353</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>82</v>
+        <v>354</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6600,11 +6749,11 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G39" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H39" t="s" s="2">
         <v>82</v>
       </c>
@@ -6615,16 +6764,20 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>138</v>
+        <v>269</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>139</v>
+        <v>358</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
       </c>
@@ -6648,43 +6801,43 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>82</v>
+        <v>362</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>82</v>
+        <v>363</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>192</v>
+        <v>357</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>82</v>
+        <v>364</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>82</v>
@@ -6693,10 +6846,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>82</v>
+        <v>365</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6707,21 +6860,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>82</v>
+        <v>367</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
@@ -6733,18 +6886,20 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>383</v>
+        <v>269</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
       </c>
@@ -6768,13 +6923,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>82</v>
+        <v>372</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6792,7 +6947,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>192</v>
+        <v>366</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6804,33 +6959,33 @@
         <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>82</v>
+        <v>374</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>82</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6841,7 +6996,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
@@ -6850,21 +7005,23 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>185</v>
+        <v>379</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>197</v>
+        <v>380</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>198</v>
+        <v>381</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
       </c>
@@ -6912,16 +7069,16 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>200</v>
+        <v>378</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>105</v>
@@ -6933,10 +7090,10 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>136</v>
+        <v>385</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6970,19 +7127,19 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>107</v>
+        <v>269</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>203</v>
+        <v>387</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>204</v>
+        <v>388</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>205</v>
+        <v>389</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7008,13 +7165,13 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>207</v>
+        <v>390</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>208</v>
+        <v>391</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
@@ -7032,7 +7189,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>209</v>
+        <v>386</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7050,27 +7207,27 @@
         <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>82</v>
+        <v>392</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>136</v>
+        <v>394</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>82</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7090,21 +7247,23 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>158</v>
+        <v>269</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>211</v>
+        <v>397</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>212</v>
+        <v>398</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
       </c>
@@ -7128,13 +7287,13 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>82</v>
+        <v>401</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>82</v>
+        <v>402</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
@@ -7152,7 +7311,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>214</v>
+        <v>396</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7173,10 +7332,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>82</v>
+        <v>403</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>215</v>
+        <v>404</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7187,10 +7346,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7210,19 +7369,19 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>185</v>
+        <v>406</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>217</v>
+        <v>407</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>218</v>
+        <v>408</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>219</v>
+        <v>409</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7272,7 +7431,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>220</v>
+        <v>405</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7290,27 +7449,27 @@
         <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>82</v>
+        <v>410</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>82</v>
+        <v>411</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>136</v>
+        <v>412</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>82</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7333,17 +7492,15 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>391</v>
+        <v>218</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7392,7 +7549,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>389</v>
+        <v>220</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7404,33 +7561,33 @@
         <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>394</v>
+        <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>395</v>
+        <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>396</v>
+        <v>221</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>397</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7453,20 +7610,16 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>399</v>
+        <v>138</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>400</v>
+        <v>139</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
@@ -7502,19 +7655,19 @@
         <v>82</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>398</v>
+        <v>224</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7526,7 +7679,7 @@
         <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>404</v>
+        <v>144</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7535,10 +7688,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>405</v>
+        <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>406</v>
+        <v>82</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7549,12 +7702,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>82</v>
       </c>
@@ -7575,15 +7730,17 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>186</v>
+        <v>418</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7632,19 +7789,19 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
@@ -7656,7 +7813,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7667,21 +7824,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
@@ -7690,19 +7847,19 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>409</v>
+        <v>231</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>410</v>
+        <v>232</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>154</v>
+        <v>233</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7752,19 +7909,19 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>82</v>
+        <v>235</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
@@ -7776,7 +7933,7 @@
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7787,46 +7944,44 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>412</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>413</v>
+        <v>237</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>414</v>
+        <v>238</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>82</v>
       </c>
@@ -7850,13 +8005,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>82</v>
+        <v>242</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7874,19 +8029,19 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>415</v>
+        <v>243</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
@@ -7909,10 +8064,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7932,18 +8087,20 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>417</v>
+        <v>190</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>418</v>
+        <v>245</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7992,7 +8149,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>416</v>
+        <v>248</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8001,7 +8158,7 @@
         <v>93</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>420</v>
+        <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>105</v>
@@ -8013,10 +8170,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>421</v>
+        <v>82</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>422</v>
+        <v>249</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8027,10 +8184,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8050,18 +8207,20 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>417</v>
+        <v>217</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>424</v>
+        <v>251</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8110,7 +8269,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>423</v>
+        <v>254</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8119,7 +8278,7 @@
         <v>93</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>420</v>
+        <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>105</v>
@@ -8131,10 +8290,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>421</v>
+        <v>82</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>426</v>
+        <v>136</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8145,10 +8304,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8171,20 +8330,18 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>235</v>
+        <v>426</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="N52" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>431</v>
-      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>82</v>
       </c>
@@ -8208,13 +8365,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>432</v>
+        <v>82</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>433</v>
+        <v>82</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8232,7 +8389,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8250,27 +8407,27 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>343</v>
+        <v>432</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>82</v>
+        <v>433</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8293,19 +8450,19 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>235</v>
+        <v>435</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8330,13 +8487,13 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>250</v>
+        <v>82</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>441</v>
+        <v>82</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>442</v>
+        <v>82</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8354,7 +8511,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8366,19 +8523,19 @@
         <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>105</v>
+        <v>440</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>434</v>
+        <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>343</v>
+        <v>442</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8415,18 +8572,16 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>444</v>
+        <v>217</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>445</v>
+        <v>218</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>446</v>
+        <v>219</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>447</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>82</v>
       </c>
@@ -8474,7 +8629,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>443</v>
+        <v>220</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8486,7 +8641,7 @@
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>82</v>
@@ -8498,7 +8653,7 @@
         <v>82</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>448</v>
+        <v>221</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8509,10 +8664,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8523,7 +8678,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>82</v>
@@ -8535,13 +8690,13 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>450</v>
+        <v>139</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>451</v>
+        <v>140</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8580,31 +8735,29 @@
         <v>82</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>449</v>
+        <v>224</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
@@ -8613,10 +8766,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>421</v>
+        <v>82</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>452</v>
+        <v>82</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8627,12 +8780,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>82</v>
       </c>
@@ -8641,7 +8796,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>82</v>
@@ -8650,19 +8805,19 @@
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8712,7 +8867,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>453</v>
+        <v>224</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8721,10 +8876,10 @@
         <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>82</v>
@@ -8733,10 +8888,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>458</v>
+        <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>459</v>
+        <v>82</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8747,14 +8902,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>82</v>
+        <v>452</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8767,24 +8922,26 @@
         <v>82</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>461</v>
+        <v>138</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
       </c>
@@ -8832,7 +8989,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8844,7 +9001,7 @@
         <v>82</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>82</v>
@@ -8853,10 +9010,10 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>458</v>
+        <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>465</v>
+        <v>136</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -8867,10 +9024,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8893,13 +9050,13 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>185</v>
+        <v>457</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>186</v>
+        <v>458</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>187</v>
+        <v>459</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8950,7 +9107,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>188</v>
+        <v>456</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8959,10 +9116,10 @@
         <v>93</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>82</v>
+        <v>460</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>82</v>
@@ -8971,10 +9128,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>82</v>
+        <v>461</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>189</v>
+        <v>462</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -8985,10 +9142,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8996,11 +9153,11 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G59" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G59" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H59" t="s" s="2">
         <v>82</v>
       </c>
@@ -9011,13 +9168,13 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>138</v>
+        <v>457</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>139</v>
+        <v>464</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>140</v>
+        <v>465</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9056,31 +9213,31 @@
         <v>82</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>192</v>
+        <v>463</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>82</v>
+        <v>460</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>82</v>
@@ -9089,10 +9246,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>82</v>
+        <v>461</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9117,7 +9274,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>82</v>
@@ -9129,18 +9286,20 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="O60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9164,13 +9323,13 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>82</v>
+        <v>472</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>82</v>
+        <v>473</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -9188,31 +9347,31 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>192</v>
+        <v>467</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>82</v>
+        <v>474</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>82</v>
+        <v>475</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9223,10 +9382,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9237,7 +9396,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -9246,21 +9405,23 @@
         <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>185</v>
+        <v>269</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>197</v>
+        <v>477</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>198</v>
+        <v>478</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
       </c>
@@ -9284,13 +9445,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>82</v>
+        <v>481</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>82</v>
+        <v>482</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9308,16 +9469,16 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>200</v>
+        <v>476</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>105</v>
@@ -9326,13 +9487,13 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>82</v>
+        <v>474</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>82</v>
+        <v>475</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>136</v>
+        <v>376</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9343,10 +9504,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9366,21 +9527,21 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>107</v>
+        <v>484</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>203</v>
+        <v>485</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
       </c>
@@ -9404,13 +9565,13 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -9428,7 +9589,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>209</v>
+        <v>483</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9452,7 +9613,7 @@
         <v>82</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>136</v>
+        <v>488</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9463,10 +9624,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9486,20 +9647,18 @@
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>211</v>
+        <v>490</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9548,7 +9707,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>214</v>
+        <v>489</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9569,10 +9728,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>82</v>
+        <v>461</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>215</v>
+        <v>492</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9583,10 +9742,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9597,7 +9756,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>82</v>
@@ -9609,16 +9768,16 @@
         <v>94</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>185</v>
+        <v>494</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>217</v>
+        <v>495</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>218</v>
+        <v>496</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>219</v>
+        <v>497</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9668,13 +9827,13 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>220</v>
+        <v>493</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>82</v>
@@ -9689,10 +9848,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>82</v>
+        <v>498</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>136</v>
+        <v>499</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -9703,10 +9862,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9729,20 +9888,18 @@
         <v>94</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>399</v>
+        <v>501</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>476</v>
+        <v>502</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>82</v>
       </c>
@@ -9790,7 +9947,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9811,10 +9968,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -9825,10 +9982,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9851,13 +10008,13 @@
         <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9908,7 +10065,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9932,7 +10089,7 @@
         <v>82</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -9943,10 +10100,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9954,7 +10111,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>81</v>
@@ -10016,7 +10173,9 @@
       <c r="AB67" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AC67" s="2"/>
+      <c r="AC67" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="AD67" t="s" s="2">
         <v>82</v>
       </c>
@@ -10024,7 +10183,7 @@
         <v>142</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10059,12 +10218,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="D68" t="s" s="2">
         <v>82</v>
       </c>
@@ -10085,16 +10246,16 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>484</v>
+        <v>178</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>147</v>
+        <v>511</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>486</v>
+        <v>512</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10144,7 +10305,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10153,7 +10314,7 @@
         <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>144</v>
@@ -10179,46 +10340,44 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>487</v>
+        <v>513</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>487</v>
+        <v>513</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>412</v>
+        <v>82</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>413</v>
+        <v>231</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>414</v>
+        <v>232</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>82</v>
       </c>
@@ -10266,19 +10425,19 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>415</v>
+        <v>234</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>82</v>
+        <v>235</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>82</v>
@@ -10301,10 +10460,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>488</v>
+        <v>514</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>488</v>
+        <v>514</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10312,7 +10471,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>93</v>
@@ -10327,20 +10486,18 @@
         <v>94</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>235</v>
+        <v>107</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>489</v>
+        <v>237</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>490</v>
+        <v>238</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
@@ -10364,13 +10521,13 @@
         <v>82</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
@@ -10388,10 +10545,10 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>488</v>
+        <v>243</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>93</v>
@@ -10406,16 +10563,16 @@
         <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>492</v>
+        <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>255</v>
+        <v>82</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>256</v>
+        <v>136</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>257</v>
+        <v>82</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>82</v>
@@ -10423,10 +10580,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>493</v>
+        <v>515</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>493</v>
+        <v>515</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10449,20 +10606,18 @@
         <v>94</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>315</v>
+        <v>190</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>494</v>
+        <v>245</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>147</v>
+        <v>246</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>82</v>
       </c>
@@ -10510,7 +10665,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>493</v>
+        <v>248</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10528,27 +10683,27 @@
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>496</v>
+        <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>321</v>
+        <v>82</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>322</v>
+        <v>249</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>323</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10568,23 +10723,21 @@
         <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>498</v>
+        <v>251</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>499</v>
+        <v>252</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
@@ -10608,13 +10761,13 @@
         <v>82</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>330</v>
+        <v>82</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>82</v>
@@ -10632,7 +10785,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>497</v>
+        <v>254</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10641,7 +10794,7 @@
         <v>93</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>331</v>
+        <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>105</v>
@@ -10653,10 +10806,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -10667,14 +10820,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>334</v>
+        <v>82</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10690,22 +10843,22 @@
         <v>82</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>235</v>
+        <v>435</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>335</v>
+        <v>518</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>336</v>
+        <v>519</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>337</v>
+        <v>520</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>338</v>
+        <v>521</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -10730,13 +10883,13 @@
         <v>82</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>339</v>
+        <v>82</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>340</v>
+        <v>82</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>82</v>
@@ -10754,7 +10907,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10772,27 +10925,27 @@
         <v>82</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>342</v>
+        <v>522</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>343</v>
+        <v>523</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>344</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10803,7 +10956,7 @@
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>82</v>
@@ -10815,20 +10968,16 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>399</v>
+        <v>217</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>503</v>
+        <v>218</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>82</v>
       </c>
@@ -10876,19 +11025,19 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>502</v>
+        <v>220</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>82</v>
@@ -10897,10 +11046,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>405</v>
+        <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>406</v>
+        <v>221</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -10911,10 +11060,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10925,7 +11074,7 @@
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>82</v>
@@ -10937,13 +11086,13 @@
         <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10982,31 +11131,29 @@
         <v>82</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="AC75" s="2"/>
       <c r="AD75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>82</v>
@@ -11018,7 +11165,7 @@
         <v>82</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11029,22 +11176,24 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="D76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G76" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G76" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H76" t="s" s="2">
         <v>82</v>
       </c>
@@ -11055,15 +11204,17 @@
         <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>138</v>
+        <v>527</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>139</v>
+        <v>528</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11100,17 +11251,19 @@
         <v>82</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AC76" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11119,7 +11272,7 @@
         <v>81</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>144</v>
@@ -11145,12 +11298,14 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="D77" t="s" s="2">
         <v>82</v>
       </c>
@@ -11159,7 +11314,7 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>82</v>
@@ -11171,16 +11326,16 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>504</v>
+        <v>172</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>402</v>
+        <v>529</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11230,7 +11385,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11239,7 +11394,7 @@
         <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>144</v>
@@ -11265,46 +11420,46 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="D78" t="s" s="2">
-        <v>412</v>
+        <v>82</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>138</v>
+        <v>527</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>413</v>
+        <v>528</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>414</v>
+        <v>175</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>82</v>
       </c>
@@ -11352,7 +11507,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>415</v>
+        <v>224</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11361,7 +11516,7 @@
         <v>81</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>144</v>
@@ -11376,7 +11531,7 @@
         <v>82</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -11387,42 +11542,46 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>82</v>
+        <v>452</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>417</v>
+        <v>138</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
       </c>
@@ -11470,19 +11629,19 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>416</v>
+        <v>455</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>420</v>
+        <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>82</v>
@@ -11491,10 +11650,10 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>421</v>
+        <v>82</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>422</v>
+        <v>136</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -11505,10 +11664,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11516,7 +11675,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>93</v>
@@ -11528,19 +11687,23 @@
         <v>82</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>417</v>
+        <v>269</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>424</v>
+        <v>534</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+        <v>535</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
       </c>
@@ -11564,13 +11727,13 @@
         <v>82</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>82</v>
+        <v>285</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>82</v>
+        <v>286</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -11588,16 +11751,16 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>423</v>
+        <v>533</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>420</v>
+        <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>105</v>
@@ -11606,16 +11769,16 @@
         <v>82</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>82</v>
+        <v>537</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>421</v>
+        <v>289</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>426</v>
+        <v>290</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>82</v>
+        <v>291</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>82</v>
@@ -11623,10 +11786,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>512</v>
+        <v>538</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>512</v>
+        <v>538</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11646,22 +11809,22 @@
         <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>235</v>
+        <v>349</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>428</v>
+        <v>539</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>429</v>
+        <v>168</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>430</v>
+        <v>540</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>431</v>
+        <v>352</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -11686,13 +11849,13 @@
         <v>82</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>432</v>
+        <v>82</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>433</v>
+        <v>82</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>82</v>
@@ -11710,7 +11873,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>427</v>
+        <v>538</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11728,27 +11891,27 @@
         <v>82</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>434</v>
+        <v>541</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>435</v>
+        <v>355</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>343</v>
+        <v>165</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11759,7 +11922,7 @@
         <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>82</v>
@@ -11771,19 +11934,19 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>437</v>
+        <v>543</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>438</v>
+        <v>544</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>439</v>
+        <v>545</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>440</v>
+        <v>361</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -11808,13 +11971,13 @@
         <v>82</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>441</v>
+        <v>362</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>442</v>
+        <v>363</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>82</v>
@@ -11832,16 +11995,16 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>436</v>
+        <v>542</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>82</v>
+        <v>364</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>105</v>
@@ -11850,13 +12013,13 @@
         <v>82</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>434</v>
+        <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>435</v>
+        <v>136</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -11867,21 +12030,21 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>514</v>
+        <v>546</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>514</v>
+        <v>546</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>82</v>
+        <v>367</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>82</v>
@@ -11893,17 +12056,19 @@
         <v>82</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>444</v>
+        <v>269</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>445</v>
+        <v>368</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O83" t="s" s="2">
-        <v>447</v>
+        <v>371</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -11928,13 +12093,13 @@
         <v>82</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>82</v>
+        <v>372</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>82</v>
@@ -11952,13 +12117,13 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>443</v>
+        <v>546</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>82</v>
@@ -11970,27 +12135,27 @@
         <v>82</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>82</v>
+        <v>374</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>448</v>
+        <v>376</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>82</v>
+        <v>377</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>515</v>
+        <v>547</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>515</v>
+        <v>547</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12001,7 +12166,7 @@
         <v>80</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>82</v>
@@ -12013,16 +12178,20 @@
         <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>185</v>
+        <v>435</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>450</v>
+        <v>548</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
@@ -12070,13 +12239,13 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>449</v>
+        <v>547</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>82</v>
@@ -12091,15 +12260,1211 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="AN84" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP84" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP85" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AC86" s="2"/>
+      <c r="AD86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP86" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="D87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP87" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AO84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP84" t="s" s="2">
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP88" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP89" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP90" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP91" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP92" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="P93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP93" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP94" t="s" s="2">
         <v>82</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Observation.xlsx
+++ b/StructureDefinition-profile-Observation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3632" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3176" uniqueCount="548">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.2376099-06:00</t>
+    <t>2026-02-17T14:42:26.8632645-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -481,7 +481,7 @@
     <t>The reference to a FHIR ObservationDefinition resource that provides the definition that is adhered to in whole or in part by this Observation instance.</t>
   </si>
   <si>
-    <t>Element `Observation.instantiates[x]` is will have a context of Observation based on following the parent source element upwards and mapping to `Observation`.</t>
+    <t>Element `Observation.instantiates[x]` has a context of Observation based on following the parent source element upwards and mapping to `Observation`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -522,7 +522,7 @@
     <t>Identifies the observation(s) that triggered the performance of this observation.</t>
   </si>
   <si>
-    <t>Element `Observation.triggeredBy` is will have a context of Observation based on following the parent source element upwards and mapping to `Observation`.</t>
+    <t>Element `Observation.triggeredBy` has a context of Observation based on following the parent source element upwards and mapping to `Observation`.</t>
   </si>
   <si>
     <t>Observation.extension:value</t>
@@ -542,7 +542,7 @@
   </si>
   <si>
     <t>Note that the target element context `Observation.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Observation`.
-Element `Observation.value[x]` is mapped to FHIR R4 element `Observation.value[x]`.
+Element `Observation.value[x]` has is mapped to FHIR R4 element `Observation.value[x]`, but has no comparisons.
 Note that the target element context `Observation.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Observation`.</t>
   </si>
   <si>
@@ -581,7 +581,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Observation.bodyStructure` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Observation.bodyStructure` is will have a context of Observation based on following the parent source element upwards and mapping to `Observation`.</t>
+Element `Observation.bodyStructure` has a context of Observation based on following the parent source element upwards and mapping to `Observation`.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -734,7 +734,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Observation.partOf` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Observation.partOf` is mapped to FHIR R4 element `Observation.partOf`.</t>
+Element `Observation.partOf` has is mapped to FHIR R4 element `Observation.partOf`, but has no comparisons.</t>
   </si>
   <si>
     <t>Observation.partOf.reference</t>
@@ -1331,7 +1331,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Observation.specimen` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Observation.specimen` is mapped to FHIR R4 element `Observation.specimen`.</t>
+Element `Observation.specimen` has is mapped to FHIR R4 element `Observation.specimen`, but has no comparisons.</t>
   </si>
   <si>
     <t>Observation.specimen.reference</t>
@@ -1409,24 +1409,21 @@
     <t>Observation.referenceRange.extension</t>
   </si>
   <si>
-    <t>Observation.referenceRange.extension:normalValue</t>
-  </si>
-  <si>
-    <t>normalValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.referenceRange.normalValue|0.0.1-snapshot-3}
+    <t>Observation.referenceRange.extension:referenceRange</t>
+  </si>
+  <si>
+    <t>referenceRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.referenceRange|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Observation.referenceRange.normalValue from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The value of the normal value of the reference range.</t>
-  </si>
-  <si>
-    <t>Element `Observation.referenceRange.normalValue` is part of an existing definition because parent element `Observation.referenceRange` requires a component extension (e.g., if this element is used as a content reference).
-Element `Observation.referenceRange.normalValue` is will have a context of Observation.referenceRange based on following the parent source element upwards and mapping to `Observation`.</t>
+    <t>Cross-version extension for Observation.referenceRange from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Observation.referenceRange` has is mapped to FHIR R4 element `Observation.referenceRange`, but has no comparisons.
+Note available implied context: `Observation.component.referenceRange` because `Observation.component.referenceRange` is defined as a content reference to `Observation.referenceRange`.</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1626,7 +1623,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Observation.derivedFrom` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Observation.derivedFrom` is mapped to FHIR R4 element `Observation.derivedFrom`.</t>
+Element `Observation.derivedFrom` has is mapped to FHIR R4 element `Observation.derivedFrom`, but has no comparisons.</t>
   </si>
   <si>
     <t>Observation.derivedFrom.reference</t>
@@ -1668,25 +1665,20 @@
     <t>Observation.component.extension</t>
   </si>
   <si>
-    <t>Observation.component.extension:value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.component.value|0.0.1-snapshot-3}
+    <t>Observation.component.extension:component</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.component|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Observation.component.value[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that the target element context `Observation.component.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Observation.component`.
-Element `Observation.component.value[x]` is mapped to FHIR R4 element `Observation.component.value[x]`.
-Note that the target element context `Observation.component.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Observation.component`.</t>
-  </si>
-  <si>
-    <t>Observation.component.extension:valueCanonical</t>
-  </si>
-  <si>
-    <t>Observation.component.extension:valueReference</t>
+    <t>Cross-version extension for Observation.component from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Observation.component` has is mapped to FHIR R4 element `Observation.component`, but has no comparisons.</t>
   </si>
   <si>
     <t>Observation.component.modifierExtension</t>
@@ -1743,49 +1735,6 @@
   </si>
   <si>
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
-  </si>
-  <si>
-    <t>Observation.component.referenceRange.id</t>
-  </si>
-  <si>
-    <t>Observation.component.referenceRange.extension</t>
-  </si>
-  <si>
-    <t>Observation.component.referenceRange.extension:referenceRange</t>
-  </si>
-  <si>
-    <t>referenceRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.component.referenceRange|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Observation.component.referenceRange from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Observation.component.referenceRange` is mapped to FHIR R4 element `Observation.component.referenceRange`.</t>
-  </si>
-  <si>
-    <t>Observation.component.referenceRange.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.component.referenceRange.low</t>
-  </si>
-  <si>
-    <t>Observation.component.referenceRange.high</t>
-  </si>
-  <si>
-    <t>Observation.component.referenceRange.type</t>
-  </si>
-  <si>
-    <t>Observation.component.referenceRange.appliesTo</t>
-  </si>
-  <si>
-    <t>Observation.component.referenceRange.age</t>
-  </si>
-  <si>
-    <t>Observation.component.referenceRange.text</t>
   </si>
 </sst>
 </file>
@@ -2092,7 +2041,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP94"/>
+  <dimension ref="A1:AP82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2101,8 +2050,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.30078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="48.84765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.55859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.10546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="18.46484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
@@ -8796,7 +8745,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>82</v>
@@ -8814,10 +8763,10 @@
         <v>448</v>
       </c>
       <c r="M56" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8902,14 +8851,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8931,10 +8880,10 @@
         <v>138</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>186</v>
@@ -8989,7 +8938,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9024,10 +8973,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9050,13 +8999,13 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9107,7 +9056,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9116,7 +9065,7 @@
         <v>93</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>105</v>
@@ -9128,10 +9077,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9142,10 +9091,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9168,13 +9117,13 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9225,7 +9174,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9234,7 +9183,7 @@
         <v>93</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>105</v>
@@ -9246,10 +9195,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9260,10 +9209,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9289,16 +9238,16 @@
         <v>269</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9326,11 +9275,11 @@
         <v>117</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9347,7 +9296,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9365,10 +9314,10 @@
         <v>82</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>376</v>
@@ -9382,10 +9331,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9411,16 +9360,16 @@
         <v>269</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9448,11 +9397,11 @@
         <v>284</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>482</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
       </c>
@@ -9469,7 +9418,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9487,10 +9436,10 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>376</v>
@@ -9504,10 +9453,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9530,17 +9479,17 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9589,7 +9538,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9613,7 +9562,7 @@
         <v>82</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9624,10 +9573,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9653,10 +9602,10 @@
         <v>217</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9707,7 +9656,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9728,10 +9677,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9742,10 +9691,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9768,16 +9717,16 @@
         <v>94</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9827,7 +9776,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9848,10 +9797,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -9862,10 +9811,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9888,16 +9837,16 @@
         <v>94</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9947,7 +9896,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9968,10 +9917,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -9982,10 +9931,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10100,10 +10049,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10218,13 +10167,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C68" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>82</v>
@@ -10249,13 +10198,13 @@
         <v>178</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10340,10 +10289,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10460,10 +10409,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10580,10 +10529,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10700,10 +10649,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10820,10 +10769,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10849,16 +10798,16 @@
         <v>435</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -10907,7 +10856,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10928,10 +10877,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -10942,10 +10891,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11060,10 +11009,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11176,13 +11125,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="C76" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>82</v>
@@ -11192,7 +11141,7 @@
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>82</v>
@@ -11210,7 +11159,7 @@
         <v>528</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>168</v>
+        <v>518</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>529</v>
@@ -11301,43 +11250,43 @@
         <v>530</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>82</v>
+        <v>451</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>527</v>
+        <v>138</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>528</v>
+        <v>452</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>172</v>
+        <v>453</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
       </c>
@@ -11385,7 +11334,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>224</v>
+        <v>454</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11394,7 +11343,7 @@
         <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>144</v>
@@ -11409,7 +11358,7 @@
         <v>82</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
@@ -11423,17 +11372,15 @@
         <v>531</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>93</v>
@@ -11445,21 +11392,23 @@
         <v>82</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>527</v>
+        <v>269</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>175</v>
+        <v>533</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
       </c>
@@ -11483,13 +11432,13 @@
         <v>82</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>82</v>
+        <v>285</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>82</v>
+        <v>286</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
@@ -11507,34 +11456,34 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>224</v>
+        <v>531</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>82</v>
+        <v>535</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>82</v>
+        <v>289</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>82</v>
+        <v>290</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>82</v>
+        <v>291</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>82</v>
@@ -11542,45 +11491,45 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>452</v>
+        <v>82</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>138</v>
+        <v>349</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>453</v>
+        <v>537</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>454</v>
+        <v>168</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>186</v>
+        <v>538</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>187</v>
+        <v>352</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11629,45 +11578,45 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>455</v>
+        <v>536</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>82</v>
+        <v>539</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11675,7 +11624,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>93</v>
@@ -11687,22 +11636,22 @@
         <v>82</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>269</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>283</v>
+        <v>361</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -11727,13 +11676,13 @@
         <v>82</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>284</v>
+        <v>240</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>285</v>
+        <v>362</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>286</v>
+        <v>363</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -11751,16 +11700,16 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>82</v>
+        <v>364</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>105</v>
@@ -11769,16 +11718,16 @@
         <v>82</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>537</v>
+        <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>289</v>
+        <v>136</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>290</v>
+        <v>365</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>291</v>
+        <v>82</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>82</v>
@@ -11786,21 +11735,21 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>82</v>
+        <v>367</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -11809,22 +11758,22 @@
         <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>349</v>
+        <v>269</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>539</v>
+        <v>368</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>168</v>
+        <v>369</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>540</v>
+        <v>370</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -11849,13 +11798,13 @@
         <v>82</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>82</v>
+        <v>372</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>82</v>
@@ -11873,13 +11822,13 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>82</v>
@@ -11891,27 +11840,27 @@
         <v>82</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>541</v>
+        <v>374</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>165</v>
+        <v>376</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>356</v>
+        <v>377</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11922,7 +11871,7 @@
         <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>82</v>
@@ -11934,19 +11883,19 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>269</v>
+        <v>83</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>545</v>
+        <v>438</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>361</v>
+        <v>439</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -11971,13 +11920,13 @@
         <v>82</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>362</v>
+        <v>82</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>363</v>
+        <v>82</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>82</v>
@@ -11995,16 +11944,16 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>364</v>
+        <v>82</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>105</v>
@@ -12016,1455 +11965,15 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>136</v>
+        <v>441</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>365</v>
+        <v>442</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="P83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP83" t="s" s="2">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="P84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP84" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP85" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AC86" s="2"/>
-      <c r="AD86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP86" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="D87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="O87" s="2"/>
-      <c r="P87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP87" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="P88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP88" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP89" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP90" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="P91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP91" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="P92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP92" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="P93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP93" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP94" t="s" s="2">
         <v>82</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Observation.xlsx
+++ b/StructureDefinition-profile-Observation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3176" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3441" uniqueCount="559">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8632645-06:00</t>
+    <t>2026-02-20T11:59:20.8996396-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Observation|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -471,7 +471,7 @@
     <t>instantiates</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.instantiates|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.instantiates}
 </t>
   </si>
   <si>
@@ -512,7 +512,7 @@
     <t>triggeredBy</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.triggeredBy|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.triggeredBy}
 </t>
   </si>
   <si>
@@ -531,7 +531,7 @@
     <t>value</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.value|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.value}
 </t>
   </si>
   <si>
@@ -570,7 +570,7 @@
     <t>bodyStructure</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -964,6 +964,40 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
+    <t>Observation.subject.id</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension:subject</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Observation.subject from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/BiologicallyDerivedProduct,http://hl7.org/fhir/StructureDefinition/Medication,http://hl7.org/fhir/StructureDefinition/NutritionProduct,http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/Procedure,http://hl7.org/fhir/StructureDefinition/Substance in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Observation.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Observation.subject` has is mapped to FHIR R4 element `Observation.subject`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>Observation.subject.reference</t>
+  </si>
+  <si>
+    <t>Observation.subject.type</t>
+  </si>
+  <si>
+    <t>Observation.subject.identifier</t>
+  </si>
+  <si>
+    <t>Observation.subject.display</t>
+  </si>
+  <si>
     <t>Observation.focus</t>
   </si>
   <si>
@@ -1415,7 +1449,7 @@
     <t>referenceRange</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.referenceRange|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.referenceRange}
 </t>
   </si>
   <si>
@@ -1671,7 +1705,7 @@
     <t>component</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.component|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.component}
 </t>
   </si>
   <si>
@@ -2041,7 +2075,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP82"/>
+  <dimension ref="A1:AP89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5975,7 +6009,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
@@ -5984,20 +6018,18 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>304</v>
+        <v>217</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>305</v>
+        <v>218</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6046,19 +6078,19 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>303</v>
+        <v>220</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -6067,13 +6099,13 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>308</v>
+        <v>221</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>302</v>
+        <v>82</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6081,21 +6113,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>310</v>
+        <v>82</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -6104,23 +6136,19 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>311</v>
+        <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>312</v>
+        <v>139</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
@@ -6156,46 +6184,46 @@
         <v>82</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>309</v>
+        <v>224</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>316</v>
+        <v>82</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>317</v>
+        <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>318</v>
+        <v>82</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6203,14 +6231,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="D35" t="s" s="2">
-        <v>321</v>
+        <v>82</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6226,23 +6256,21 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>322</v>
+        <v>178</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>82</v>
       </c>
@@ -6290,34 +6318,34 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>320</v>
+        <v>224</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>327</v>
+        <v>82</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>328</v>
+        <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>330</v>
+        <v>82</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>82</v>
@@ -6325,10 +6353,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6351,16 +6379,16 @@
         <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>332</v>
+        <v>217</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>333</v>
+        <v>231</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>334</v>
+        <v>232</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>335</v>
+        <v>233</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6410,7 +6438,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>331</v>
+        <v>234</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6419,7 +6447,7 @@
         <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>82</v>
+        <v>235</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>105</v>
@@ -6431,13 +6459,13 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>336</v>
+        <v>82</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>337</v>
+        <v>136</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>338</v>
+        <v>82</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>82</v>
@@ -6445,10 +6473,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6459,7 +6487,7 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
@@ -6471,18 +6499,18 @@
         <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>340</v>
+        <v>107</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>341</v>
+        <v>237</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>82</v>
       </c>
@@ -6506,13 +6534,13 @@
         <v>82</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>82</v>
+        <v>242</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>82</v>
@@ -6530,13 +6558,13 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>339</v>
+        <v>243</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>82</v>
@@ -6545,19 +6573,19 @@
         <v>105</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>344</v>
+        <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>345</v>
+        <v>82</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>346</v>
+        <v>136</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>347</v>
+        <v>82</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>82</v>
@@ -6565,10 +6593,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6591,20 +6619,18 @@
         <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>349</v>
+        <v>190</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>350</v>
+        <v>245</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>82</v>
       </c>
@@ -6652,7 +6678,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6661,7 +6687,7 @@
         <v>93</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>353</v>
+        <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>105</v>
@@ -6670,27 +6696,27 @@
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>354</v>
+        <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>355</v>
+        <v>82</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>356</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>357</v>
+        <v>313</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>357</v>
+        <v>313</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6710,23 +6736,21 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>269</v>
+        <v>217</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>358</v>
+        <v>251</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>359</v>
+        <v>252</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>82</v>
       </c>
@@ -6750,13 +6774,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>362</v>
+        <v>82</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>363</v>
+        <v>82</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6774,7 +6798,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>357</v>
+        <v>254</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6783,7 +6807,7 @@
         <v>93</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>364</v>
+        <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>105</v>
@@ -6795,10 +6819,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6809,14 +6833,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>366</v>
+        <v>314</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>366</v>
+        <v>314</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>367</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6832,23 +6856,21 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>368</v>
+        <v>316</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>369</v>
+        <v>317</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>82</v>
       </c>
@@ -6872,13 +6894,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>372</v>
+        <v>82</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>373</v>
+        <v>82</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6896,7 +6918,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>366</v>
+        <v>314</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6914,38 +6936,38 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>374</v>
+        <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>375</v>
+        <v>289</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>376</v>
+        <v>319</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>82</v>
+        <v>302</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>82</v>
+        <v>321</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
@@ -6954,22 +6976,22 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>379</v>
+        <v>322</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>380</v>
+        <v>323</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>381</v>
+        <v>324</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>383</v>
+        <v>326</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7018,13 +7040,13 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>82</v>
@@ -7033,19 +7055,19 @@
         <v>105</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>82</v>
+        <v>327</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>384</v>
+        <v>328</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>385</v>
+        <v>329</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>82</v>
@@ -7053,14 +7075,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>386</v>
+        <v>331</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>386</v>
+        <v>331</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>82</v>
+        <v>332</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7076,21 +7098,23 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>269</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>387</v>
+        <v>334</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>388</v>
+        <v>335</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
       </c>
@@ -7114,13 +7138,13 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>284</v>
+        <v>82</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>390</v>
+        <v>82</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>391</v>
+        <v>82</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
@@ -7138,7 +7162,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>386</v>
+        <v>331</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7153,30 +7177,30 @@
         <v>105</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>82</v>
+        <v>338</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>392</v>
+        <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>393</v>
+        <v>339</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>394</v>
+        <v>340</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>395</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>396</v>
+        <v>342</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>396</v>
+        <v>342</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7196,23 +7220,21 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>269</v>
+        <v>343</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>397</v>
+        <v>344</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>398</v>
+        <v>345</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>82</v>
       </c>
@@ -7236,13 +7258,13 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>284</v>
+        <v>82</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>401</v>
+        <v>82</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>402</v>
+        <v>82</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
@@ -7260,7 +7282,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>396</v>
+        <v>342</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7281,13 +7303,13 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>403</v>
+        <v>347</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>404</v>
+        <v>348</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>82</v>
+        <v>349</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>82</v>
@@ -7295,10 +7317,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>405</v>
+        <v>350</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>405</v>
+        <v>350</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7309,7 +7331,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>82</v>
@@ -7318,21 +7340,21 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>406</v>
+        <v>351</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>407</v>
+        <v>352</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
       </c>
@@ -7380,13 +7402,13 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>405</v>
+        <v>350</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>82</v>
@@ -7395,30 +7417,30 @@
         <v>105</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>410</v>
+        <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>411</v>
+        <v>356</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>82</v>
+        <v>358</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>413</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>414</v>
+        <v>359</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>414</v>
+        <v>359</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7438,19 +7460,23 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>217</v>
+        <v>360</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>218</v>
+        <v>361</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
       </c>
@@ -7498,7 +7524,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>220</v>
+        <v>359</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7507,36 +7533,36 @@
         <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>82</v>
+        <v>364</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>82</v>
+        <v>365</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>82</v>
+        <v>366</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>82</v>
+        <v>367</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>415</v>
+        <v>368</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>415</v>
+        <v>368</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7547,7 +7573,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7559,16 +7585,20 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>138</v>
+        <v>269</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>139</v>
+        <v>369</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
@@ -7592,43 +7622,43 @@
         <v>82</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>82</v>
+        <v>374</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7637,10 +7667,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7651,23 +7681,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>82</v>
+        <v>378</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
@@ -7679,18 +7707,20 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>178</v>
+        <v>269</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>418</v>
+        <v>379</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>419</v>
+        <v>380</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
       </c>
@@ -7714,13 +7744,13 @@
         <v>82</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>82</v>
@@ -7738,7 +7768,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>224</v>
+        <v>377</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7750,33 +7780,33 @@
         <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>82</v>
+        <v>385</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>82</v>
+        <v>386</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>82</v>
+        <v>388</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7787,7 +7817,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
@@ -7796,21 +7826,23 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>217</v>
+        <v>390</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>231</v>
+        <v>391</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>232</v>
+        <v>392</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
@@ -7858,16 +7890,16 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>234</v>
+        <v>389</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>105</v>
@@ -7879,10 +7911,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>82</v>
+        <v>395</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>136</v>
+        <v>396</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7893,10 +7925,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7916,19 +7948,19 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>107</v>
+        <v>269</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>237</v>
+        <v>398</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>238</v>
+        <v>399</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>239</v>
+        <v>400</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7954,13 +7986,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>240</v>
+        <v>284</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>241</v>
+        <v>401</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>242</v>
+        <v>402</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7978,7 +8010,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>243</v>
+        <v>397</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7996,27 +8028,27 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>82</v>
+        <v>403</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>82</v>
+        <v>404</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>136</v>
+        <v>405</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>82</v>
+        <v>406</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8036,21 +8068,23 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>245</v>
+        <v>408</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>246</v>
+        <v>409</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
       </c>
@@ -8074,13 +8108,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>82</v>
+        <v>412</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>82</v>
+        <v>413</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -8098,7 +8132,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>248</v>
+        <v>407</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8119,10 +8153,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>82</v>
+        <v>414</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>249</v>
+        <v>415</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8133,10 +8167,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8156,19 +8190,19 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>217</v>
+        <v>417</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>251</v>
+        <v>418</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>252</v>
+        <v>419</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>253</v>
+        <v>420</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8218,7 +8252,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>254</v>
+        <v>416</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8236,19 +8270,19 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>82</v>
+        <v>421</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>82</v>
+        <v>422</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>136</v>
+        <v>423</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>82</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52">
@@ -8279,17 +8313,15 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>426</v>
+        <v>217</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>427</v>
+        <v>218</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8338,7 +8370,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>425</v>
+        <v>220</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8350,33 +8382,33 @@
         <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>430</v>
+        <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>431</v>
+        <v>82</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>432</v>
+        <v>221</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>433</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8399,20 +8431,16 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>435</v>
+        <v>138</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>436</v>
+        <v>139</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>82</v>
       </c>
@@ -8448,19 +8476,19 @@
         <v>82</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>434</v>
+        <v>224</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8472,7 +8500,7 @@
         <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>440</v>
+        <v>144</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
@@ -8481,10 +8509,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>441</v>
+        <v>82</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>442</v>
+        <v>82</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8495,12 +8523,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="D54" t="s" s="2">
         <v>82</v>
       </c>
@@ -8521,15 +8551,17 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>218</v>
+        <v>429</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8578,19 +8610,19 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>82</v>
@@ -8602,7 +8634,7 @@
         <v>82</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8613,10 +8645,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8627,7 +8659,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>82</v>
@@ -8636,18 +8668,20 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>139</v>
+        <v>231</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8684,29 +8718,31 @@
         <v>82</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AC55" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>82</v>
+        <v>235</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
@@ -8718,7 +8754,7 @@
         <v>82</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8729,14 +8765,12 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>82</v>
       </c>
@@ -8745,7 +8779,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>82</v>
@@ -8754,19 +8788,19 @@
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>447</v>
+        <v>107</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>448</v>
+        <v>237</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>437</v>
+        <v>238</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>449</v>
+        <v>239</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8792,13 +8826,13 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>82</v>
+        <v>242</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
@@ -8816,19 +8850,19 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>82</v>
@@ -8840,7 +8874,7 @@
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8851,46 +8885,44 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>451</v>
+        <v>82</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>452</v>
+        <v>245</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>453</v>
+        <v>246</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>82</v>
       </c>
@@ -8938,19 +8970,19 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>454</v>
+        <v>248</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>82</v>
@@ -8962,7 +8994,7 @@
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>136</v>
+        <v>249</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -8973,10 +9005,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8996,18 +9028,20 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>456</v>
+        <v>217</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>457</v>
+        <v>251</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9056,7 +9090,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>455</v>
+        <v>254</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9065,7 +9099,7 @@
         <v>93</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>459</v>
+        <v>82</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>105</v>
@@ -9077,10 +9111,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>460</v>
+        <v>82</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>461</v>
+        <v>136</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9091,10 +9125,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>462</v>
+        <v>436</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>462</v>
+        <v>436</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9117,15 +9151,17 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9174,7 +9210,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>462</v>
+        <v>436</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9183,7 +9219,7 @@
         <v>93</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>459</v>
+        <v>82</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>105</v>
@@ -9192,27 +9228,27 @@
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>82</v>
+        <v>441</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>82</v>
+        <v>444</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9223,7 +9259,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>82</v>
@@ -9235,19 +9271,19 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>269</v>
+        <v>446</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9272,13 +9308,13 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>471</v>
+        <v>82</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>472</v>
+        <v>82</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -9296,31 +9332,31 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>105</v>
+        <v>451</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>473</v>
+        <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>376</v>
+        <v>453</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9331,10 +9367,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9345,7 +9381,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -9357,20 +9393,16 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>269</v>
+        <v>217</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>476</v>
+        <v>218</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>82</v>
       </c>
@@ -9394,13 +9426,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>284</v>
+        <v>82</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>480</v>
+        <v>82</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>481</v>
+        <v>82</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9418,31 +9450,31 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>475</v>
+        <v>220</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>473</v>
+        <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>474</v>
+        <v>82</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>376</v>
+        <v>221</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9453,10 +9485,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9467,7 +9499,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>82</v>
@@ -9479,18 +9511,16 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>483</v>
+        <v>138</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>484</v>
+        <v>139</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>485</v>
+        <v>140</v>
       </c>
       <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>486</v>
-      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>82</v>
       </c>
@@ -9526,31 +9556,29 @@
         <v>82</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="AC62" s="2"/>
       <c r="AD62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>482</v>
+        <v>224</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>82</v>
@@ -9562,7 +9590,7 @@
         <v>82</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>487</v>
+        <v>82</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9573,12 +9601,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="D63" t="s" s="2">
         <v>82</v>
       </c>
@@ -9587,7 +9617,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>82</v>
@@ -9599,15 +9629,17 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>217</v>
+        <v>458</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9656,19 +9688,19 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>488</v>
+        <v>224</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>82</v>
@@ -9677,10 +9709,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>460</v>
+        <v>82</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>491</v>
+        <v>82</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9691,14 +9723,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>82</v>
+        <v>462</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9711,24 +9743,26 @@
         <v>82</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>493</v>
+        <v>138</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
       </c>
@@ -9776,7 +9810,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>492</v>
+        <v>465</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9788,7 +9822,7 @@
         <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>82</v>
@@ -9797,10 +9831,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>497</v>
+        <v>82</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>498</v>
+        <v>136</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -9811,10 +9845,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>499</v>
+        <v>466</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>499</v>
+        <v>466</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9825,7 +9859,7 @@
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>82</v>
@@ -9834,20 +9868,18 @@
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>501</v>
+        <v>468</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -9896,16 +9928,16 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>499</v>
+        <v>466</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>82</v>
+        <v>470</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>105</v>
@@ -9917,10 +9949,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>504</v>
+        <v>472</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -9931,10 +9963,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>505</v>
+        <v>473</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>505</v>
+        <v>473</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9957,13 +9989,13 @@
         <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>217</v>
+        <v>467</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>218</v>
+        <v>474</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>219</v>
+        <v>475</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10014,7 +10046,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>220</v>
+        <v>473</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10023,10 +10055,10 @@
         <v>93</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>82</v>
+        <v>470</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>82</v>
@@ -10035,10 +10067,10 @@
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>82</v>
+        <v>471</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>221</v>
+        <v>476</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10049,10 +10081,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>506</v>
+        <v>477</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>506</v>
+        <v>477</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10063,7 +10095,7 @@
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -10075,16 +10107,20 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>138</v>
+        <v>269</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>139</v>
+        <v>478</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
       </c>
@@ -10108,55 +10144,55 @@
         <v>82</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>82</v>
+        <v>482</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>82</v>
+        <v>483</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>224</v>
+        <v>477</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>82</v>
+        <v>484</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>82</v>
+        <v>485</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10167,14 +10203,12 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>508</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
         <v>82</v>
       </c>
@@ -10183,7 +10217,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>82</v>
@@ -10195,18 +10229,20 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>178</v>
+        <v>269</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
       </c>
@@ -10230,13 +10266,13 @@
         <v>82</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>82</v>
+        <v>491</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>82</v>
+        <v>492</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>82</v>
@@ -10254,7 +10290,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>224</v>
+        <v>486</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10266,19 +10302,19 @@
         <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>82</v>
+        <v>484</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>82</v>
+        <v>485</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10289,10 +10325,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10312,21 +10348,21 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>217</v>
+        <v>494</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>231</v>
+        <v>495</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>497</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
       </c>
@@ -10374,7 +10410,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>234</v>
+        <v>493</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10383,7 +10419,7 @@
         <v>93</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>105</v>
@@ -10398,7 +10434,7 @@
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>136</v>
+        <v>498</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10409,10 +10445,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10432,20 +10468,18 @@
         <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>237</v>
+        <v>500</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10470,13 +10504,13 @@
         <v>82</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>241</v>
+        <v>82</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>242</v>
+        <v>82</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
@@ -10494,7 +10528,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>243</v>
+        <v>499</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10515,10 +10549,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>82</v>
+        <v>471</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>136</v>
+        <v>502</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10529,10 +10563,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10543,7 +10577,7 @@
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>82</v>
@@ -10555,16 +10589,16 @@
         <v>94</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>190</v>
+        <v>504</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>245</v>
+        <v>505</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>246</v>
+        <v>506</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>247</v>
+        <v>507</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10614,13 +10648,13 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>248</v>
+        <v>503</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>82</v>
@@ -10635,10 +10669,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>82</v>
+        <v>508</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>249</v>
+        <v>509</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10649,10 +10683,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10663,7 +10697,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
@@ -10675,16 +10709,16 @@
         <v>94</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>217</v>
+        <v>511</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>251</v>
+        <v>512</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>252</v>
+        <v>513</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>253</v>
+        <v>514</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10734,13 +10768,13 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>254</v>
+        <v>510</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>82</v>
@@ -10755,10 +10789,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>82</v>
+        <v>508</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>136</v>
+        <v>515</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -10783,7 +10817,7 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>82</v>
@@ -10792,23 +10826,19 @@
         <v>82</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>435</v>
+        <v>217</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>517</v>
+        <v>218</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>82</v>
       </c>
@@ -10856,19 +10886,19 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>516</v>
+        <v>220</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
@@ -10877,10 +10907,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>521</v>
+        <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>522</v>
+        <v>221</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -10891,10 +10921,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10905,7 +10935,7 @@
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>82</v>
@@ -10917,13 +10947,13 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>217</v>
+        <v>138</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>218</v>
+        <v>139</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>219</v>
+        <v>140</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10962,31 +10992,31 @@
         <v>82</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>82</v>
@@ -10998,7 +11028,7 @@
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11009,12 +11039,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="D75" t="s" s="2">
         <v>82</v>
       </c>
@@ -11023,7 +11055,7 @@
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>82</v>
@@ -11035,15 +11067,17 @@
         <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>139</v>
+        <v>520</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>521</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>522</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11080,14 +11114,16 @@
         <v>82</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AC75" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>224</v>
@@ -11125,14 +11161,12 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
         <v>82</v>
       </c>
@@ -11141,7 +11175,7 @@
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>82</v>
@@ -11150,19 +11184,19 @@
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>527</v>
+        <v>217</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>528</v>
+        <v>231</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>518</v>
+        <v>232</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>529</v>
+        <v>233</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11212,19 +11246,19 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>82</v>
@@ -11236,7 +11270,7 @@
         <v>82</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>82</v>
@@ -11247,46 +11281,44 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>451</v>
+        <v>82</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>452</v>
+        <v>237</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>453</v>
+        <v>238</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>82</v>
       </c>
@@ -11310,13 +11342,13 @@
         <v>82</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>82</v>
+        <v>242</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>82</v>
@@ -11334,19 +11366,19 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>454</v>
+        <v>243</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>82</v>
@@ -11369,10 +11401,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11380,7 +11412,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>93</v>
@@ -11395,20 +11427,18 @@
         <v>94</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>269</v>
+        <v>190</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>532</v>
+        <v>245</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>533</v>
+        <v>246</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>82</v>
       </c>
@@ -11432,13 +11462,13 @@
         <v>82</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>284</v>
+        <v>82</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>285</v>
+        <v>82</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>286</v>
+        <v>82</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
@@ -11456,10 +11486,10 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>531</v>
+        <v>248</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>93</v>
@@ -11474,16 +11504,16 @@
         <v>82</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>535</v>
+        <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>291</v>
+        <v>82</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>82</v>
@@ -11491,10 +11521,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11517,20 +11547,18 @@
         <v>94</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>349</v>
+        <v>217</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>537</v>
+        <v>251</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>168</v>
+        <v>252</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>82</v>
       </c>
@@ -11578,7 +11606,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>536</v>
+        <v>254</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11596,27 +11624,27 @@
         <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>539</v>
+        <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>355</v>
+        <v>82</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>356</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11627,7 +11655,7 @@
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>82</v>
@@ -11636,22 +11664,22 @@
         <v>82</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>269</v>
+        <v>446</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>361</v>
+        <v>531</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -11676,13 +11704,13 @@
         <v>82</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>362</v>
+        <v>82</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>363</v>
+        <v>82</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -11700,16 +11728,16 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>364</v>
+        <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>105</v>
@@ -11721,10 +11749,10 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>136</v>
+        <v>532</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>365</v>
+        <v>533</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -11735,21 +11763,21 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>367</v>
+        <v>82</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -11761,20 +11789,16 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>269</v>
+        <v>217</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>368</v>
+        <v>218</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>82</v>
       </c>
@@ -11798,13 +11822,13 @@
         <v>82</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>372</v>
+        <v>82</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>373</v>
+        <v>82</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>82</v>
@@ -11822,45 +11846,45 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>544</v>
+        <v>220</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>374</v>
+        <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>376</v>
+        <v>221</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11883,20 +11907,16 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>546</v>
+        <v>139</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>82</v>
       </c>
@@ -11932,19 +11952,17 @@
         <v>82</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="AC82" s="2"/>
       <c r="AD82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>545</v>
+        <v>224</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11956,24 +11974,878 @@
         <v>82</v>
       </c>
       <c r="AJ82" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP82" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="D83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP83" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP84" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AK82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP82" t="s" s="2">
+      <c r="AK85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AP85" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP86" t="s" s="2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="P87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP87" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP88" t="s" s="2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP89" t="s" s="2">
         <v>82</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Observation.xlsx
+++ b/StructureDefinition-profile-Observation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3441" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="490">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.8996396-06:00</t>
+    <t>2026-02-21T13:36:54.3033754-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Observation|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -471,7 +471,7 @@
     <t>instantiates</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.instantiates}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.instantiates|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -512,7 +512,7 @@
     <t>triggeredBy</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.triggeredBy}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.triggeredBy|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -531,7 +531,7 @@
     <t>value</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.value}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.value|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -542,7 +542,7 @@
   </si>
   <si>
     <t>Note that the target element context `Observation.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Observation`.
-Element `Observation.value[x]` has is mapped to FHIR R4 element `Observation.value[x]`, but has no comparisons.
+Element `Observation.value[x]` is mapped to FHIR R4 element `Observation.value[x]` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
 Note that the target element context `Observation.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Observation`.</t>
   </si>
   <si>
@@ -562,26 +562,6 @@
   </si>
   <si>
     <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/MolecularSequence in FHIR R4</t>
-  </si>
-  <si>
-    <t>Observation.extension:bodyStructure</t>
-  </si>
-  <si>
-    <t>bodyStructure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Observation.bodyStructure from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/BodyStructure in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Observation.bodyStructure` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Observation.bodyStructure` has a context of Observation based on following the parent source element upwards and mapping to `Observation`.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -693,7 +673,562 @@
     <t>.outboundRelationship[typeCode=FLFS].target</t>
   </si>
   <si>
-    <t>Observation.partOf.id</t>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
+</t>
+  </si>
+  <si>
+    <t>Type of observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|4.0.1|Group|4.0.1|Device|4.0.1|Location|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Who and/or what the observation is about</t>
+  </si>
+  <si>
+    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
+  </si>
+  <si>
+    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
+  </si>
+  <si>
+    <t>Observations have no value if you don't know who or what they're about.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>participation[typeCode=RTGT]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Observation.focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>What the observation is about, when it is not about the subject of record</t>
+  </si>
+  <si>
+    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
+  </si>
+  <si>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
+  </si>
+  <si>
+    <t>participation[typeCode=SBJ]</t>
+  </si>
+  <si>
+    <t>Observation.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Context
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Healthcare event during which this observation is made</t>
+  </si>
+  <si>
+    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
+  </si>
+  <si>
+    <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>PV1</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Observation.effective[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occurrence
+</t>
+  </si>
+  <si>
+    <t>dateTime
+PeriodTiminginstant</t>
+  </si>
+  <si>
+    <t>Clinically relevant time/time-period for observation</t>
+  </si>
+  <si>
+    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
+  </si>
+  <si>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
+  </si>
+  <si>
+    <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>OBX-14, and/or OBX-19 after v2.4  (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>Observation.issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>Date/Time this version was made available</t>
+  </si>
+  <si>
+    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
+  </si>
+  <si>
+    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+  </si>
+  <si>
+    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Observation.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Who is responsible for the observation</t>
+  </si>
+  <si>
+    <t>Who was responsible for asserting the observed value as "true".</t>
+  </si>
+  <si>
+    <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
+  </si>
+  <si>
+    <t>participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>Observation.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+  </si>
+  <si>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-7
+</t>
+  </si>
+  <si>
+    <t>&lt; 441742003 |Evaluation finding|</t>
+  </si>
+  <si>
+    <t>OBX.2, OBX.5, OBX.6</t>
+  </si>
+  <si>
+    <t>363714003 |Interprets|</t>
+  </si>
+  <si>
+    <t>Observation.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Why the result is missing</t>
+  </si>
+  <si>
+    <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
+  </si>
+  <si>
+    <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
+The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.</t>
+  </si>
+  <si>
+    <t>For many results it is necessary to handle exceptional values in measurements.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-6
+</t>
+  </si>
+  <si>
+    <t>value.nullFlavor</t>
+  </si>
+  <si>
+    <t>Observation.interpretation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abnormal Flag
+</t>
+  </si>
+  <si>
+    <t>High, low, normal, etc.</t>
+  </si>
+  <si>
+    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
+  </si>
+  <si>
+    <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
+  </si>
+  <si>
+    <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
+  </si>
+  <si>
+    <t>Codes identifying interpretations of observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
+  </si>
+  <si>
+    <t>&lt; 260245000 |Findings values|</t>
+  </si>
+  <si>
+    <t>OBX-8</t>
+  </si>
+  <si>
+    <t>interpretationCode</t>
+  </si>
+  <si>
+    <t>363713009 |Has interpretation|</t>
+  </si>
+  <si>
+    <t>Observation.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Comments about the observation</t>
+  </si>
+  <si>
+    <t>Comments about the observation or the results.</t>
+  </si>
+  <si>
+    <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.</t>
+  </si>
+  <si>
+    <t>Need to be able to provide free text additional information.</t>
+  </si>
+  <si>
+    <t>NTE.3 (partner NTE to OBX, or sometimes another (child?) OBX)</t>
+  </si>
+  <si>
+    <t>subjectOf.observationEvent[code="annotation"].value</t>
+  </si>
+  <si>
+    <t>Observation.bodySite</t>
+  </si>
+  <si>
+    <t>Observed body part</t>
+  </si>
+  <si>
+    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+  </si>
+  <si>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
+  </si>
+  <si>
+    <t>&lt; 123037004 |Body structure|</t>
+  </si>
+  <si>
+    <t>OBX-20</t>
+  </si>
+  <si>
+    <t>targetSiteCode</t>
+  </si>
+  <si>
+    <t>718497002 |Inherent location|</t>
+  </si>
+  <si>
+    <t>Observation.method</t>
+  </si>
+  <si>
+    <t>How it was done</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to perform the observation.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code for Observation.code.</t>
+  </si>
+  <si>
+    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
+  </si>
+  <si>
+    <t>Methods for simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
+  </si>
+  <si>
+    <t>OBX-17</t>
+  </si>
+  <si>
+    <t>methodCode</t>
+  </si>
+  <si>
+    <t>Observation.specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Specimen used for this observation</t>
+  </si>
+  <si>
+    <t>The specimen that was used when this observation was made.</t>
+  </si>
+  <si>
+    <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).</t>
+  </si>
+  <si>
+    <t>&lt; 123038009 |Specimen|</t>
+  </si>
+  <si>
+    <t>SPM segment</t>
+  </si>
+  <si>
+    <t>participation[typeCode=SPC].specimen</t>
+  </si>
+  <si>
+    <t>704319004 |Inherent in|</t>
+  </si>
+  <si>
+    <t>Observation.device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>(Measurement) Device</t>
+  </si>
+  <si>
+    <t>The device used to generate the observation data.</t>
+  </si>
+  <si>
+    <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.</t>
+  </si>
+  <si>
+    <t>&lt; 49062001 |Device|</t>
+  </si>
+  <si>
+    <t>OBX-17 / PRT -10</t>
+  </si>
+  <si>
+    <t>participation[typeCode=DEV]</t>
+  </si>
+  <si>
+    <t>424226004 |Using device|</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Provides guide for interpretation</t>
+  </si>
+  <si>
+    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.</t>
+  </si>
+  <si>
+    <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.</t>
+  </si>
+  <si>
+    <t>Knowing what values are considered "normal" can help evaluate the significance of a particular result. Need to be able to provide multiple reference ranges for different contexts.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+obs-3:Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}</t>
+  </si>
+  <si>
+    <t>OBX.7</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode=REFV]/target[classCode=OBS, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -712,752 +1247,30 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Observation.partOf.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
+    <t>Observation.referenceRange.extension</t>
   </si>
   <si>
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Observation.partOf.extension:partOf</t>
-  </si>
-  <si>
-    <t>partOf</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Observation.partOf from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/GenomicStudy in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Observation.partOf` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Observation.partOf` has is mapped to FHIR R4 element `Observation.partOf`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>Observation.partOf.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
+    <t>Observation.referenceRange.extension:normalValue</t>
+  </si>
+  <si>
+    <t>normalValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.referenceRange.normalValue|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Observation.partOf.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Observation.partOf.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Observation.partOf.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name
-</t>
-  </si>
-  <si>
-    <t>Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|4.0.1|Group|4.0.1|Device|4.0.1|Location|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Who and/or what the observation is about</t>
-  </si>
-  <si>
-    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
-  </si>
-  <si>
-    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
-  </si>
-  <si>
-    <t>Observations have no value if you don't know who or what they're about.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>participation[typeCode=RTGT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Observation.subject.id</t>
-  </si>
-  <si>
-    <t>Observation.subject.extension</t>
-  </si>
-  <si>
-    <t>Observation.subject.extension:subject</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Observation.subject from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/BiologicallyDerivedProduct,http://hl7.org/fhir/StructureDefinition/Medication,http://hl7.org/fhir/StructureDefinition/NutritionProduct,http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/Procedure,http://hl7.org/fhir/StructureDefinition/Substance in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Observation.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Observation.subject` has is mapped to FHIR R4 element `Observation.subject`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>Observation.subject.reference</t>
-  </si>
-  <si>
-    <t>Observation.subject.type</t>
-  </si>
-  <si>
-    <t>Observation.subject.identifier</t>
-  </si>
-  <si>
-    <t>Observation.subject.display</t>
-  </si>
-  <si>
-    <t>Observation.focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>What the observation is about, when it is not about the subject of record</t>
-  </si>
-  <si>
-    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
-  </si>
-  <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
-  </si>
-  <si>
-    <t>participation[typeCode=SBJ]</t>
-  </si>
-  <si>
-    <t>Observation.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Context
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Healthcare event during which this observation is made</t>
-  </si>
-  <si>
-    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
-  </si>
-  <si>
-    <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>PV1</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>Observation.effective[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occurrence
-</t>
-  </si>
-  <si>
-    <t>dateTime
-PeriodTiminginstant</t>
-  </si>
-  <si>
-    <t>Clinically relevant time/time-period for observation</t>
-  </si>
-  <si>
-    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
-  </si>
-  <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
-  </si>
-  <si>
-    <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>OBX-14, and/or OBX-19 after v2.4  (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>Observation.issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>Date/Time this version was made available</t>
-  </si>
-  <si>
-    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
-  </si>
-  <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
-  </si>
-  <si>
-    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>Observation.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Who is responsible for the observation</t>
-  </si>
-  <si>
-    <t>Who was responsible for asserting the observed value as "true".</t>
-  </si>
-  <si>
-    <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
-  </si>
-  <si>
-    <t>participation[typeCode=PRF]</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>Observation.value[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
-  </si>
-  <si>
-    <t>Actual result</t>
-  </si>
-  <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-7
-</t>
-  </si>
-  <si>
-    <t>&lt; 441742003 |Evaluation finding|</t>
-  </si>
-  <si>
-    <t>OBX.2, OBX.5, OBX.6</t>
-  </si>
-  <si>
-    <t>363714003 |Interprets|</t>
-  </si>
-  <si>
-    <t>Observation.dataAbsentReason</t>
-  </si>
-  <si>
-    <t>Why the result is missing</t>
-  </si>
-  <si>
-    <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
-  </si>
-  <si>
-    <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
-The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.</t>
-  </si>
-  <si>
-    <t>For many results it is necessary to handle exceptional values in measurements.</t>
-  </si>
-  <si>
-    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-6
-</t>
-  </si>
-  <si>
-    <t>value.nullFlavor</t>
-  </si>
-  <si>
-    <t>Observation.interpretation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal Flag
-</t>
-  </si>
-  <si>
-    <t>High, low, normal, etc.</t>
-  </si>
-  <si>
-    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
-  </si>
-  <si>
-    <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
-  </si>
-  <si>
-    <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
-  </si>
-  <si>
-    <t>Codes identifying interpretations of observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
-  </si>
-  <si>
-    <t>&lt; 260245000 |Findings values|</t>
-  </si>
-  <si>
-    <t>OBX-8</t>
-  </si>
-  <si>
-    <t>interpretationCode</t>
-  </si>
-  <si>
-    <t>363713009 |Has interpretation|</t>
-  </si>
-  <si>
-    <t>Observation.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>Comments about the observation</t>
-  </si>
-  <si>
-    <t>Comments about the observation or the results.</t>
-  </si>
-  <si>
-    <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.</t>
-  </si>
-  <si>
-    <t>Need to be able to provide free text additional information.</t>
-  </si>
-  <si>
-    <t>NTE.3 (partner NTE to OBX, or sometimes another (child?) OBX)</t>
-  </si>
-  <si>
-    <t>subjectOf.observationEvent[code="annotation"].value</t>
-  </si>
-  <si>
-    <t>Observation.bodySite</t>
-  </si>
-  <si>
-    <t>Observed body part</t>
-  </si>
-  <si>
-    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
-  </si>
-  <si>
-    <t>Codes describing anatomical locations. May include laterality.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
-  </si>
-  <si>
-    <t>&lt; 123037004 |Body structure|</t>
-  </si>
-  <si>
-    <t>OBX-20</t>
-  </si>
-  <si>
-    <t>targetSiteCode</t>
-  </si>
-  <si>
-    <t>718497002 |Inherent location|</t>
-  </si>
-  <si>
-    <t>Observation.method</t>
-  </si>
-  <si>
-    <t>How it was done</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to perform the observation.</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code for Observation.code.</t>
-  </si>
-  <si>
-    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
-  </si>
-  <si>
-    <t>Methods for simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
-  </si>
-  <si>
-    <t>OBX-17</t>
-  </si>
-  <si>
-    <t>methodCode</t>
-  </si>
-  <si>
-    <t>Observation.specimen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Specimen|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Specimen used for this observation</t>
-  </si>
-  <si>
-    <t>The specimen that was used when this observation was made.</t>
-  </si>
-  <si>
-    <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).</t>
-  </si>
-  <si>
-    <t>&lt; 123038009 |Specimen|</t>
-  </si>
-  <si>
-    <t>SPM segment</t>
-  </si>
-  <si>
-    <t>participation[typeCode=SPC].specimen</t>
-  </si>
-  <si>
-    <t>704319004 |Inherent in|</t>
-  </si>
-  <si>
-    <t>Observation.specimen.id</t>
-  </si>
-  <si>
-    <t>Observation.specimen.extension</t>
-  </si>
-  <si>
-    <t>Observation.specimen.extension:specimen</t>
-  </si>
-  <si>
-    <t>specimen</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Observation.specimen from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Group in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Observation.specimen` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Observation.specimen` has is mapped to FHIR R4 element `Observation.specimen`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>Observation.specimen.reference</t>
-  </si>
-  <si>
-    <t>Observation.specimen.type</t>
-  </si>
-  <si>
-    <t>Observation.specimen.identifier</t>
-  </si>
-  <si>
-    <t>Observation.specimen.display</t>
-  </si>
-  <si>
-    <t>Observation.device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>(Measurement) Device</t>
-  </si>
-  <si>
-    <t>The device used to generate the observation data.</t>
-  </si>
-  <si>
-    <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.</t>
-  </si>
-  <si>
-    <t>&lt; 49062001 |Device|</t>
-  </si>
-  <si>
-    <t>OBX-17 / PRT -10</t>
-  </si>
-  <si>
-    <t>participation[typeCode=DEV]</t>
-  </si>
-  <si>
-    <t>424226004 |Using device|</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Provides guide for interpretation</t>
-  </si>
-  <si>
-    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.</t>
-  </si>
-  <si>
-    <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.</t>
-  </si>
-  <si>
-    <t>Knowing what values are considered "normal" can help evaluate the significance of a particular result. Need to be able to provide multiple reference ranges for different contexts.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-obs-3:Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}</t>
-  </si>
-  <si>
-    <t>OBX.7</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode=REFV]/target[classCode=OBS, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.id</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.extension</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.extension:referenceRange</t>
-  </si>
-  <si>
-    <t>referenceRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.referenceRange}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Observation.referenceRange from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Observation.referenceRange` has is mapped to FHIR R4 element `Observation.referenceRange`, but has no comparisons.
-Note available implied context: `Observation.component.referenceRange` because `Observation.component.referenceRange` is defined as a content reference to `Observation.referenceRange`.</t>
+    <t>Cross-version extension for Observation.referenceRange.normalValue from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The value of the normal value of the reference range.</t>
+  </si>
+  <si>
+    <t>Element `Observation.referenceRange.normalValue` has a context of Observation.referenceRange based on following the parent source element upwards and mapping to `Observation`.
+Note available implied context: `Observation.component.referenceRange` because `Observation.component.referenceRange` is defined via a content reference to `Observation.referenceRange`.</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1638,40 +1451,6 @@
     <t>.targetObservation</t>
   </si>
   <si>
-    <t>Observation.derivedFrom.id</t>
-  </si>
-  <si>
-    <t>Observation.derivedFrom.extension</t>
-  </si>
-  <si>
-    <t>Observation.derivedFrom.extension:derivedFrom</t>
-  </si>
-  <si>
-    <t>derivedFrom</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Observation.derivedFrom from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/DocumentReference,http://hl7.org/fhir/StructureDefinition/GenomicStudy,http://hl7.org/fhir/StructureDefinition/ImagingSelection in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Observation.derivedFrom` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Observation.derivedFrom` has is mapped to FHIR R4 element `Observation.derivedFrom`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>Observation.derivedFrom.reference</t>
-  </si>
-  <si>
-    <t>Observation.derivedFrom.type</t>
-  </si>
-  <si>
-    <t>Observation.derivedFrom.identifier</t>
-  </si>
-  <si>
-    <t>Observation.derivedFrom.display</t>
-  </si>
-  <si>
     <t>Observation.component</t>
   </si>
   <si>
@@ -1699,20 +1478,25 @@
     <t>Observation.component.extension</t>
   </si>
   <si>
-    <t>Observation.component.extension:component</t>
-  </si>
-  <si>
-    <t>component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.component}
+    <t>Observation.component.extension:value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.component.value|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Observation.component from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Observation.component` has is mapped to FHIR R4 element `Observation.component`, but has no comparisons.</t>
+    <t>Cross-version extension for Observation.component.value[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that the target element context `Observation.component.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Observation.component`.
+Element `Observation.component.value[x]` is mapped to FHIR R4 element `Observation.component.value[x]` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Note that the target element context `Observation.component.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Observation.component`.</t>
+  </si>
+  <si>
+    <t>Observation.component.extension:valueCanonical</t>
+  </si>
+  <si>
+    <t>Observation.component.extension:valueReference</t>
   </si>
   <si>
     <t>Observation.component.modifierExtension</t>
@@ -2075,7 +1859,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP89"/>
+  <dimension ref="A1:AP62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2084,7 +1868,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.55859375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.09765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.10546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="18.46484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2112,7 +1896,7 @@
     <col min="26" max="26" width="50.55078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="36.046875" customWidth="true" bestFit="true" hidden="true"/>
@@ -4068,43 +3852,43 @@
         <v>176</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="C17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>82</v>
       </c>
@@ -4152,7 +3936,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4176,7 +3960,7 @@
         <v>82</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>82</v>
@@ -4187,14 +3971,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4207,23 +3991,21 @@
         <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="J18" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="K18" t="s" s="2">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N18" t="s" s="2">
         <v>186</v>
       </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>187</v>
       </c>
@@ -4274,7 +4056,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4286,22 +4068,22 @@
         <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>82</v>
@@ -4309,14 +4091,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4335,17 +4117,17 @@
         <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4394,7 +4176,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4409,19 +4191,19 @@
         <v>105</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4429,14 +4211,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4455,18 +4237,18 @@
         <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>82</v>
       </c>
@@ -4514,7 +4296,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4529,16 +4311,16 @@
         <v>105</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4549,44 +4331,46 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>209</v>
+        <v>113</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>82</v>
       </c>
@@ -4610,13 +4394,13 @@
         <v>82</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>82</v>
+        <v>216</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>82</v>
@@ -4634,13 +4418,13 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>82</v>
@@ -4649,19 +4433,19 @@
         <v>105</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>82</v>
@@ -4669,10 +4453,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4683,7 +4467,7 @@
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>82</v>
@@ -4695,16 +4479,20 @@
         <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
@@ -4728,13 +4516,13 @@
         <v>82</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>82</v>
+        <v>229</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>82</v>
+        <v>230</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>82</v>
@@ -4752,19 +4540,19 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>82</v>
@@ -4776,10 +4564,10 @@
         <v>82</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>82</v>
+        <v>232</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4787,21 +4575,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>82</v>
@@ -4810,19 +4598,23 @@
         <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>138</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>139</v>
+        <v>235</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
       </c>
@@ -4846,73 +4638,71 @@
         <v>82</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>82</v>
+        <v>239</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>82</v>
+        <v>242</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>82</v>
+        <v>244</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>82</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>82</v>
       </c>
@@ -4930,21 +4720,23 @@
         <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
@@ -4992,34 +4784,34 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>82</v>
+        <v>254</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>82</v>
+        <v>256</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>82</v>
+        <v>257</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -5027,10 +4819,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5041,7 +4833,7 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>82</v>
@@ -5053,16 +4845,16 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5112,16 +4904,16 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>105</v>
@@ -5133,13 +4925,13 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>82</v>
+        <v>244</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>136</v>
+        <v>263</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>82</v>
+        <v>257</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>82</v>
@@ -5147,14 +4939,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>82</v>
+        <v>265</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5173,18 +4965,20 @@
         <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>107</v>
+        <v>266</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
       </c>
@@ -5208,13 +5002,13 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>241</v>
+        <v>82</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>242</v>
+        <v>82</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -5232,7 +5026,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5247,19 +5041,19 @@
         <v>105</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>82</v>
+        <v>272</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>136</v>
+        <v>273</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>82</v>
+        <v>274</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>82</v>
@@ -5267,14 +5061,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>82</v>
+        <v>276</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5293,18 +5087,20 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>190</v>
+        <v>277</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
       </c>
@@ -5352,7 +5148,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5367,19 +5163,19 @@
         <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>82</v>
+        <v>283</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>82</v>
+        <v>285</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>82</v>
@@ -5387,10 +5183,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5413,16 +5209,16 @@
         <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>217</v>
+        <v>287</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5472,7 +5268,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5493,13 +5289,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>82</v>
+        <v>291</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>136</v>
+        <v>292</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5507,10 +5303,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5518,34 +5314,32 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>113</v>
+        <v>295</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5570,13 +5364,13 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>260</v>
+        <v>82</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>261</v>
+        <v>82</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>262</v>
+        <v>82</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
@@ -5594,13 +5388,13 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>82</v>
@@ -5609,19 +5403,19 @@
         <v>105</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>264</v>
+        <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>82</v>
@@ -5629,10 +5423,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5643,7 +5437,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>82</v>
@@ -5652,22 +5446,22 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>271</v>
+        <v>168</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5692,13 +5486,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>274</v>
+        <v>82</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>275</v>
+        <v>82</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5716,16 +5510,16 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>82</v>
+        <v>308</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>105</v>
@@ -5734,35 +5528,35 @@
         <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>82</v>
+        <v>309</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>82</v>
+        <v>310</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>276</v>
+        <v>165</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>277</v>
+        <v>82</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>82</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>279</v>
+        <v>82</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>93</v>
@@ -5774,22 +5568,22 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5814,13 +5608,13 @@
         <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
@@ -5838,56 +5632,56 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>82</v>
+        <v>320</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>287</v>
+        <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>288</v>
+        <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>289</v>
+        <v>136</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>291</v>
+        <v>82</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>292</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>82</v>
+        <v>323</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>82</v>
@@ -5896,22 +5690,22 @@
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>294</v>
+        <v>224</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -5936,13 +5730,13 @@
         <v>82</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>82</v>
+        <v>317</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>82</v>
@@ -5960,13 +5754,13 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>82</v>
@@ -5975,30 +5769,30 @@
         <v>105</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>299</v>
+        <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>302</v>
+        <v>82</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>82</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6009,7 +5803,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
@@ -6021,16 +5815,20 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>217</v>
+        <v>335</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>218</v>
+        <v>336</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
       </c>
@@ -6078,19 +5876,19 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>220</v>
+        <v>334</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -6099,10 +5897,10 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>82</v>
+        <v>340</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>221</v>
+        <v>341</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6113,10 +5911,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6127,7 +5925,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -6139,15 +5937,17 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>138</v>
+        <v>224</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>139</v>
+        <v>343</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6172,73 +5972,71 @@
         <v>82</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>82</v>
+        <v>239</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>82</v>
+        <v>346</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>82</v>
+        <v>347</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>224</v>
+        <v>342</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>82</v>
+        <v>348</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>82</v>
+        <v>349</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>82</v>
+        <v>350</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>82</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>305</v>
+        <v>352</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>82</v>
       </c>
@@ -6259,18 +6057,20 @@
         <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>307</v>
+        <v>353</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>308</v>
+        <v>354</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
       </c>
@@ -6294,13 +6094,13 @@
         <v>82</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>82</v>
+        <v>239</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>82</v>
+        <v>357</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>82</v>
+        <v>358</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>82</v>
@@ -6318,19 +6118,19 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>224</v>
+        <v>352</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
@@ -6339,10 +6139,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>82</v>
+        <v>359</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>82</v>
+        <v>360</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6353,10 +6153,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>310</v>
+        <v>361</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>310</v>
+        <v>361</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6376,19 +6176,19 @@
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>217</v>
+        <v>362</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>231</v>
+        <v>363</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>232</v>
+        <v>364</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>233</v>
+        <v>365</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6438,7 +6238,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>234</v>
+        <v>361</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6447,7 +6247,7 @@
         <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>105</v>
@@ -6456,27 +6256,27 @@
         <v>82</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>82</v>
+        <v>366</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>82</v>
+        <v>367</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>136</v>
+        <v>368</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>82</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>370</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>311</v>
+        <v>370</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6496,19 +6296,19 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>107</v>
+        <v>371</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>237</v>
+        <v>372</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>238</v>
+        <v>373</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>239</v>
+        <v>374</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6534,13 +6334,13 @@
         <v>82</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>241</v>
+        <v>82</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>242</v>
+        <v>82</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>82</v>
@@ -6558,7 +6358,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>243</v>
+        <v>370</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6576,27 +6376,27 @@
         <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>136</v>
+        <v>377</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>82</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>312</v>
+        <v>379</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>312</v>
+        <v>379</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6607,7 +6407,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>82</v>
@@ -6616,21 +6416,23 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>190</v>
+        <v>380</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>245</v>
+        <v>381</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>246</v>
+        <v>382</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
       </c>
@@ -6678,19 +6480,19 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>248</v>
+        <v>379</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>105</v>
+        <v>385</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>82</v>
@@ -6699,10 +6501,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>82</v>
+        <v>386</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>249</v>
+        <v>387</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6713,10 +6515,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>313</v>
+        <v>388</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>313</v>
+        <v>388</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6736,20 +6538,18 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>217</v>
+        <v>389</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>251</v>
+        <v>390</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6798,7 +6598,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>254</v>
+        <v>392</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6810,7 +6610,7 @@
         <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>82</v>
@@ -6822,7 +6622,7 @@
         <v>82</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>136</v>
+        <v>393</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6833,10 +6633,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>314</v>
+        <v>394</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>314</v>
+        <v>394</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6856,20 +6656,18 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>315</v>
+        <v>138</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>316</v>
+        <v>139</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6906,19 +6704,17 @@
         <v>82</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>314</v>
+        <v>395</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6930,7 +6726,7 @@
         <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>82</v>
@@ -6939,13 +6735,13 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>302</v>
+        <v>82</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -6953,14 +6749,16 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>396</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="D41" t="s" s="2">
-        <v>321</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6976,23 +6774,21 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>322</v>
+        <v>398</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>323</v>
+        <v>399</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>324</v>
+        <v>400</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>82</v>
       </c>
@@ -7040,34 +6836,34 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>320</v>
+        <v>395</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>327</v>
+        <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>328</v>
+        <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>330</v>
+        <v>82</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>82</v>
@@ -7075,45 +6871,45 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>402</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>331</v>
+        <v>402</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>332</v>
+        <v>403</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>333</v>
+        <v>138</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>334</v>
+        <v>404</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>335</v>
+        <v>405</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>336</v>
+        <v>180</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>337</v>
+        <v>181</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7162,34 +6958,34 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>331</v>
+        <v>406</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>338</v>
+        <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>339</v>
+        <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>340</v>
+        <v>136</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>82</v>
@@ -7197,10 +6993,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>342</v>
+        <v>407</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>342</v>
+        <v>407</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7220,20 +7016,18 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>343</v>
+        <v>408</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>344</v>
+        <v>409</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7282,7 +7076,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>342</v>
+        <v>407</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7291,7 +7085,7 @@
         <v>93</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>82</v>
+        <v>411</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>105</v>
@@ -7303,13 +7097,13 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>347</v>
+        <v>412</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>348</v>
+        <v>413</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>349</v>
+        <v>82</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>82</v>
@@ -7317,10 +7111,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>350</v>
+        <v>414</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>350</v>
+        <v>414</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7331,7 +7125,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>82</v>
@@ -7340,21 +7134,19 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>351</v>
+        <v>408</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>352</v>
+        <v>415</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>353</v>
+        <v>416</v>
       </c>
       <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>354</v>
-      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>82</v>
       </c>
@@ -7402,34 +7194,34 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>350</v>
+        <v>414</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>82</v>
+        <v>411</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>355</v>
+        <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>357</v>
+        <v>417</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>358</v>
+        <v>82</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>82</v>
@@ -7437,10 +7229,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>418</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>359</v>
+        <v>418</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7460,22 +7252,22 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>360</v>
+        <v>224</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>361</v>
+        <v>419</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>168</v>
+        <v>420</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>362</v>
+        <v>421</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>363</v>
+        <v>422</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7500,13 +7292,13 @@
         <v>82</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>82</v>
+        <v>423</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>82</v>
+        <v>424</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>82</v>
@@ -7524,7 +7316,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>359</v>
+        <v>418</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7533,7 +7325,7 @@
         <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>364</v>
+        <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>105</v>
@@ -7542,27 +7334,27 @@
         <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>365</v>
+        <v>425</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>366</v>
+        <v>426</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>165</v>
+        <v>332</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>367</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>368</v>
+        <v>427</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>368</v>
+        <v>427</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7573,7 +7365,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7585,19 +7377,19 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>369</v>
+        <v>428</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>370</v>
+        <v>429</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>371</v>
+        <v>430</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>372</v>
+        <v>431</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7622,13 +7414,13 @@
         <v>82</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>373</v>
+        <v>432</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>374</v>
+        <v>433</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>82</v>
@@ -7646,16 +7438,16 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>368</v>
+        <v>427</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>105</v>
@@ -7664,13 +7456,13 @@
         <v>82</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>82</v>
+        <v>425</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>136</v>
+        <v>426</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7681,21 +7473,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>377</v>
+        <v>434</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>377</v>
+        <v>434</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>378</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
@@ -7707,19 +7499,17 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>269</v>
+        <v>435</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>379</v>
+        <v>436</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>382</v>
+        <v>438</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7744,13 +7534,13 @@
         <v>82</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>383</v>
+        <v>82</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>384</v>
+        <v>82</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>82</v>
@@ -7768,13 +7558,13 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>377</v>
+        <v>434</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>82</v>
@@ -7786,27 +7576,27 @@
         <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>385</v>
+        <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>386</v>
+        <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>388</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>389</v>
+        <v>440</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>389</v>
+        <v>440</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7817,7 +7607,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
@@ -7829,20 +7619,16 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>391</v>
+        <v>441</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
@@ -7890,13 +7676,13 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>389</v>
+        <v>440</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>82</v>
@@ -7911,10 +7697,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>396</v>
+        <v>443</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7925,10 +7711,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7939,7 +7725,7 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
@@ -7948,19 +7734,19 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>269</v>
+        <v>445</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7986,13 +7772,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>284</v>
+        <v>82</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>401</v>
+        <v>82</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>402</v>
+        <v>82</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -8010,13 +7796,13 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>82</v>
@@ -8028,27 +7814,27 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>403</v>
+        <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>406</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8059,7 +7845,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -8068,23 +7854,21 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>269</v>
+        <v>452</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>82</v>
       </c>
@@ -8108,13 +7892,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>284</v>
+        <v>82</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>412</v>
+        <v>82</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>413</v>
+        <v>82</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -8132,13 +7916,13 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>82</v>
@@ -8153,10 +7937,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8167,10 +7951,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8181,7 +7965,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
@@ -8190,21 +7974,23 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>418</v>
+        <v>458</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
       </c>
@@ -8252,13 +8038,13 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>82</v>
@@ -8270,27 +8056,27 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>421</v>
+        <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>422</v>
+        <v>462</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>423</v>
+        <v>463</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>424</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>425</v>
+        <v>464</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>425</v>
+        <v>464</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8313,13 +8099,13 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>217</v>
+        <v>389</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>218</v>
+        <v>390</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>219</v>
+        <v>391</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8370,7 +8156,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>220</v>
+        <v>392</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8394,7 +8180,7 @@
         <v>82</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>221</v>
+        <v>393</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8405,10 +8191,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>426</v>
+        <v>465</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>426</v>
+        <v>465</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8478,9 +8264,7 @@
       <c r="AB53" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AC53" t="s" s="2">
-        <v>223</v>
-      </c>
+      <c r="AC53" s="2"/>
       <c r="AD53" t="s" s="2">
         <v>82</v>
       </c>
@@ -8488,7 +8272,7 @@
         <v>142</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>224</v>
+        <v>395</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8523,13 +8307,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>427</v>
+        <v>466</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>426</v>
+        <v>465</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>428</v>
+        <v>165</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>82</v>
@@ -8551,16 +8335,16 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>178</v>
+        <v>467</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>429</v>
+        <v>468</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>430</v>
+        <v>168</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8610,7 +8394,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>224</v>
+        <v>395</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8619,7 +8403,7 @@
         <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>144</v>
@@ -8645,12 +8429,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>432</v>
+        <v>470</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>82</v>
       </c>
@@ -8668,19 +8454,19 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>217</v>
+        <v>467</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>231</v>
+        <v>468</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>232</v>
+        <v>172</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>233</v>
+        <v>469</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8730,19 +8516,19 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>234</v>
+        <v>395</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>235</v>
+        <v>151</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
@@ -8754,7 +8540,7 @@
         <v>82</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8765,12 +8551,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>433</v>
+        <v>471</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>82</v>
       </c>
@@ -8788,19 +8576,19 @@
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>107</v>
+        <v>467</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>237</v>
+        <v>468</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>239</v>
+        <v>469</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8826,13 +8614,13 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>241</v>
+        <v>82</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>242</v>
+        <v>82</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
@@ -8850,19 +8638,19 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>243</v>
+        <v>395</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>82</v>
@@ -8874,7 +8662,7 @@
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8885,44 +8673,46 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>434</v>
+        <v>472</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>434</v>
+        <v>472</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>82</v>
+        <v>403</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>245</v>
+        <v>404</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>246</v>
+        <v>405</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
       </c>
@@ -8970,19 +8760,19 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>248</v>
+        <v>406</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>82</v>
@@ -8994,7 +8784,7 @@
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>249</v>
+        <v>136</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9005,10 +8795,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>435</v>
+        <v>473</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>435</v>
+        <v>473</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9016,7 +8806,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>93</v>
@@ -9031,18 +8821,20 @@
         <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>251</v>
+        <v>474</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>252</v>
+        <v>475</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
       </c>
@@ -9066,13 +8858,13 @@
         <v>82</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>82</v>
+        <v>239</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>82</v>
@@ -9090,10 +8882,10 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>254</v>
+        <v>473</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>93</v>
@@ -9108,16 +8900,16 @@
         <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>82</v>
+        <v>477</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>82</v>
+        <v>244</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>136</v>
+        <v>245</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>82</v>
@@ -9125,10 +8917,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>436</v>
+        <v>478</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>436</v>
+        <v>478</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9148,21 +8940,23 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>437</v>
+        <v>304</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>439</v>
+        <v>168</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
       </c>
@@ -9210,7 +9004,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>436</v>
+        <v>478</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9228,27 +9022,27 @@
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>442</v>
+        <v>310</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>443</v>
+        <v>165</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>444</v>
+        <v>311</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>445</v>
+        <v>482</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>445</v>
+        <v>482</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9259,7 +9053,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>82</v>
@@ -9271,19 +9065,19 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>446</v>
+        <v>224</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>450</v>
+        <v>316</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9308,13 +9102,13 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>82</v>
+        <v>317</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>82</v>
+        <v>318</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -9332,19 +9126,19 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>445</v>
+        <v>482</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>82</v>
+        <v>320</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>451</v>
+        <v>105</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>82</v>
@@ -9353,10 +9147,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>452</v>
+        <v>136</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>453</v>
+        <v>321</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9367,21 +9161,21 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>82</v>
+        <v>323</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -9393,16 +9187,20 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>218</v>
+        <v>324</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
       </c>
@@ -9426,13 +9224,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>82</v>
+        <v>317</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9450,45 +9248,45 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>220</v>
+        <v>486</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>221</v>
+        <v>332</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>82</v>
+        <v>333</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>455</v>
+        <v>487</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>455</v>
+        <v>487</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9511,16 +9309,20 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>139</v>
+        <v>488</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
       </c>
@@ -9556,17 +9358,19 @@
         <v>82</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AC62" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>224</v>
+        <v>487</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9578,7 +9382,7 @@
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>82</v>
@@ -9587,3265 +9391,15 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>82</v>
+        <v>386</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="D63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="O63" s="2"/>
-      <c r="P63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="P64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP65" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP66" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="P67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP67" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="P68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP68" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="P69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP69" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP70" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP71" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP74" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="D75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP75" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP76" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP77" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O78" s="2"/>
-      <c r="P78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP78" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP79" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="P80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP80" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP81" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AC82" s="2"/>
-      <c r="AD82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP82" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="D83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP83" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="P84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP84" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="P85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AP85" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="P86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP86" t="s" s="2">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="P87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP87" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="P88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP88" t="s" s="2">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="P89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP89" t="s" s="2">
         <v>82</v>
       </c>
     </row>
